--- a/Perplexity tests 01_2024.xlsx
+++ b/Perplexity tests 01_2024.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/196f0b5afced95ca/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="600" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1166F0-D208-4382-A5EF-BD8BBCF541B0}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FR dataset" sheetId="1" r:id="rId1"/>
     <sheet name="EN dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="Perf table" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="185">
   <si>
     <t>TinyLlama/TinyLlama-1.1B-intermediate-step-1195k-token-2.5T</t>
   </si>
@@ -451,16 +452,157 @@
   </si>
   <si>
     <t>5.030</t>
+  </si>
+  <si>
+    <t>4.054</t>
+  </si>
+  <si>
+    <t>6.919</t>
+  </si>
+  <si>
+    <t>4.312</t>
+  </si>
+  <si>
+    <t>6.577</t>
+  </si>
+  <si>
+    <t>stabilityai/stablelm-2-1_6b</t>
+  </si>
+  <si>
+    <t>7.097</t>
+  </si>
+  <si>
+    <t>7.291</t>
+  </si>
+  <si>
+    <t>4.726</t>
+  </si>
+  <si>
+    <t>5.632</t>
+  </si>
+  <si>
+    <t>Qwen/Qwen-7B</t>
+  </si>
+  <si>
+    <t>4.466</t>
+  </si>
+  <si>
+    <t>5.413</t>
+  </si>
+  <si>
+    <t>3.897</t>
+  </si>
+  <si>
+    <t>Qwen/Qwen-14B [8 bits]</t>
+  </si>
+  <si>
+    <t>4.723</t>
+  </si>
+  <si>
+    <t>5.755</t>
+  </si>
+  <si>
+    <t>5.915</t>
+  </si>
+  <si>
+    <t>5.808</t>
+  </si>
+  <si>
+    <t>5.970</t>
+  </si>
+  <si>
+    <t>croissantllm/CroissantLLMBase</t>
+  </si>
+  <si>
+    <t>3.921</t>
+  </si>
+  <si>
+    <t>6.300</t>
+  </si>
+  <si>
+    <t>6.461</t>
+  </si>
+  <si>
+    <t>7.963</t>
+  </si>
+  <si>
+    <t>allenai/OLMo-1B</t>
+  </si>
+  <si>
+    <t>7.823</t>
+  </si>
+  <si>
+    <t>8.421</t>
+  </si>
+  <si>
+    <t>allenai/OLMo-7B</t>
+  </si>
+  <si>
+    <t>5.372</t>
+  </si>
+  <si>
+    <t>5.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.687 </t>
+  </si>
+  <si>
+    <t>6.419</t>
+  </si>
+  <si>
+    <t>7.325</t>
+  </si>
+  <si>
+    <t>8.268</t>
+  </si>
+  <si>
+    <t>Size (B)</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tokens</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>mistralai/Mistral-7B-v0,1</t>
+  </si>
+  <si>
+    <t>mistralai/Mixtral-8x7B-v0,1 [4 bits]</t>
+  </si>
+  <si>
+    <t>upstage/SOLAR-10,7B-v1,0 [8 bits]</t>
+  </si>
+  <si>
+    <t>1/PPLu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +640,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -513,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -521,11 +677,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -538,16 +709,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -559,7 +730,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A27" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,228 +1208,266 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11.180999999999999</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.2824074074074075E-4</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2">
-        <v>50277</v>
+        <v>100289</v>
       </c>
       <c r="F6" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G6" s="2">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
-        <v>9.6296296296296303E-3</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>1.1493055555555555E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>13.212999999999999</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.273148148148148E-4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2">
-        <v>50257</v>
+        <v>50280</v>
       </c>
       <c r="F7" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="6">
-        <v>2.9814814814814811E-2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>6.9097222222222225E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.273148148148148E-4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>32000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2048</v>
-      </c>
-      <c r="G8" s="2">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>16.584</v>
-      </c>
-      <c r="M8" s="8">
-        <v>4.1666666666666669E-4</v>
-      </c>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>50277</v>
       </c>
       <c r="F9" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G9" s="2">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J9" s="6">
-        <v>1.0138888888888888E-2</v>
+        <v>9.6296296296296303E-3</v>
       </c>
       <c r="L9" s="2">
         <v>14.247999999999999</v>
       </c>
       <c r="M9" s="8">
-        <v>1.8518518518518518E-4</v>
+        <v>1.5046296296296297E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>50295</v>
+        <v>50257</v>
       </c>
       <c r="F10" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G10" s="2">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.9814814814814811E-2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3.1435185185185184E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>16.122</v>
-      </c>
-      <c r="M10" s="8">
-        <v>2.0833333333333335E-4</v>
+      <c r="I11" s="2">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>16.584</v>
+      </c>
+      <c r="M11" s="8">
+        <v>4.1666666666666669E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>250680</v>
+        <v>50277</v>
       </c>
       <c r="F12" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G12" s="2">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
       <c r="J12" s="6">
-        <v>4.0879629629629634E-2</v>
+        <v>1.0138888888888888E-2</v>
       </c>
       <c r="L12" s="2">
-        <v>10.041</v>
+        <v>14.247999999999999</v>
       </c>
       <c r="M12" s="8">
-        <v>6.9444444444444444E-5</v>
+        <v>1.8518518518518518E-4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>65024</v>
+        <v>50295</v>
       </c>
       <c r="F13" s="2">
         <v>2048</v>
@@ -1220,68 +1476,36 @@
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <v>6</v>
       </c>
       <c r="J13" s="6">
-        <v>2.0636574074074075E-2</v>
+        <v>3.1435185185185184E-2</v>
       </c>
       <c r="L13" s="2">
-        <v>13.622</v>
+        <v>16.122</v>
       </c>
       <c r="M13" s="8">
-        <v>1.273148148148148E-4</v>
+        <v>2.0833333333333335E-4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50277</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2048</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>8</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2.0497685185185185E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>14.247999999999999</v>
-      </c>
-      <c r="M14" s="8">
-        <v>1.5046296296296297E-4</v>
-      </c>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>50277</v>
+        <v>250680</v>
       </c>
       <c r="F15" s="2">
         <v>2048</v>
@@ -1290,36 +1514,36 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" s="6">
-        <v>3.6018518518518519E-2</v>
+        <v>4.0879629629629634E-2</v>
       </c>
       <c r="L15" s="2">
-        <v>14.247999999999999</v>
+        <v>10.041</v>
       </c>
       <c r="M15" s="8">
-        <v>9.2592592592592588E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
-        <v>32000</v>
+        <v>65024</v>
       </c>
       <c r="F16" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G16" s="2">
         <v>16</v>
@@ -1328,33 +1552,33 @@
         <v>20</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="6">
-        <v>2.5277777777777777E-2</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="L16" s="2">
-        <v>15.042</v>
+        <v>13.622</v>
       </c>
       <c r="M16" s="8">
-        <v>5.4398148148148144E-4</v>
+        <v>1.273148148148148E-4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
-        <v>32000</v>
+        <v>50277</v>
       </c>
       <c r="F17" s="2">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -1363,33 +1587,33 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J17" s="6">
-        <v>2.5335648148148149E-2</v>
+        <v>2.0497685185185185E-2</v>
       </c>
       <c r="L17" s="2">
-        <v>15.034000000000001</v>
+        <v>14.247999999999999</v>
       </c>
       <c r="M17" s="8">
-        <v>4.9768518518518521E-4</v>
+        <v>1.5046296296296297E-4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
-        <v>32000</v>
+        <v>50277</v>
       </c>
       <c r="F18" s="2">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="G18" s="2">
         <v>16</v>
@@ -1398,30 +1622,30 @@
         <v>20</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" s="6">
-        <v>2.809027777777778E-2</v>
+        <v>3.6018518518518519E-2</v>
       </c>
       <c r="L18" s="2">
-        <v>15.452999999999999</v>
+        <v>14.247999999999999</v>
       </c>
       <c r="M18" s="8">
-        <v>4.5138888888888892E-4</v>
+        <v>9.2592592592592588E-5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="F19" s="2">
         <v>4096</v>
@@ -1433,648 +1657,1157 @@
         <v>20</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="6">
-        <v>2.5717592592592594E-2</v>
+        <v>2.5277777777777777E-2</v>
       </c>
       <c r="L19" s="2">
-        <v>16.978000000000002</v>
+        <v>15.042</v>
       </c>
       <c r="M19" s="8">
-        <v>4.3981481481481481E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2">
         <v>32000</v>
       </c>
       <c r="F20" s="2">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="G20" s="2">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
       </c>
       <c r="J20" s="6">
-        <v>3.2233796296296295E-2</v>
+        <v>2.5335648148148149E-2</v>
       </c>
       <c r="L20" s="2">
+        <v>15.034000000000001</v>
+      </c>
+      <c r="M20" s="8">
+        <v>4.9768518518518521E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2.809027777777778E-2</v>
+      </c>
+      <c r="L21" s="2">
         <v>15.452999999999999</v>
       </c>
-      <c r="M20" s="8">
-        <v>3.9351851851851852E-4</v>
+      <c r="M21" s="8">
+        <v>4.5138888888888892E-4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>147</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2">
-        <v>32000</v>
+        <v>151851</v>
       </c>
       <c r="F22" s="2">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6">
-        <v>4.4444444444444446E-2</v>
+        <v>3.2476851851851847E-2</v>
       </c>
       <c r="L22" s="2">
-        <v>16.739000000000001</v>
+        <v>13.057</v>
       </c>
       <c r="M22" s="8">
-        <v>4.0509259259259258E-4</v>
+        <v>1.7361111111111112E-4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="F23" s="2">
         <v>4096</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2">
         <v>3</v>
       </c>
       <c r="J23" s="6">
-        <v>4.1192129629629634E-2</v>
+        <v>2.5717592592592594E-2</v>
       </c>
       <c r="L23" s="2">
-        <v>15.042</v>
+        <v>16.978000000000002</v>
       </c>
       <c r="M23" s="8">
-        <v>4.0509259259259258E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4096</v>
+      </c>
+      <c r="G24" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>3.2233796296296295E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="M24" s="8">
+        <v>3.9351851851851852E-4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2">
-        <v>32000</v>
+        <v>50280</v>
       </c>
       <c r="F25" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G25" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25" s="6">
-        <v>6.1805555555555558E-2</v>
+        <v>2.9756944444444447E-2</v>
       </c>
       <c r="L25" s="2">
-        <v>15.452999999999999</v>
+        <v>14.247999999999999</v>
       </c>
       <c r="M25" s="8">
-        <v>4.1666666666666669E-4</v>
+        <v>1.8518518518518518E-4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M26" s="8"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2">
-        <v>50277</v>
+        <v>32000</v>
       </c>
       <c r="F27" s="2">
         <v>2048</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" s="6">
-        <v>0.17500000000000002</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="L27" s="2">
-        <v>14.247999999999999</v>
+        <v>16.739000000000001</v>
       </c>
       <c r="M27" s="8">
-        <v>9.2592592592592588E-5</v>
+        <v>4.0509259259259258E-4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2">
-        <v>32004</v>
+        <v>32000</v>
       </c>
       <c r="F28" s="2">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="G28" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" s="6">
-        <v>0.15277777777777776</v>
+        <v>4.1192129629629634E-2</v>
       </c>
       <c r="L28" s="2">
         <v>15.042</v>
       </c>
       <c r="M28" s="8">
-        <v>6.5972222222222213E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="2">
-        <v>64000</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4096</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="2">
+        <v>151851</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0.2388888888888889</v>
-      </c>
-      <c r="L29" s="2">
-        <v>16.978000000000002</v>
-      </c>
-      <c r="M29" s="8">
-        <v>5.0925925925925921E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M30" s="8"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="L30" s="2">
+        <v>13.057</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1.7361111111111112E-4</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4096</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="M31" s="8">
+        <v>4.1666666666666669E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50277</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="L33" s="2">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="M33" s="8">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32004</v>
+      </c>
+      <c r="F34" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="L34" s="2">
+        <v>15.042</v>
+      </c>
+      <c r="M34" s="8">
+        <v>6.5972222222222213E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="2">
+        <v>64000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4096</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="L35" s="2">
+        <v>16.978000000000002</v>
+      </c>
+      <c r="M35" s="8">
+        <v>5.0925925925925921E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B37" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D37" s="2">
         <v>65024</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F37" s="2">
         <v>8192</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G37" s="2">
         <v>4</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I37" s="2">
         <v>4</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J37" s="6">
         <v>0.13680555555555554</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L37" s="2">
         <v>13.622</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M37" s="8">
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D38" s="2">
         <v>32000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F38" s="2">
         <v>8192</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G38" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I38" s="2">
         <v>6</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J38" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L38" s="2">
         <v>15.169</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M38" s="8">
         <v>2.8935185185185189E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="6"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14">
+        <v>14</v>
+      </c>
+      <c r="G43" s="14">
+        <v>13.057</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="6"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G44" s="14">
+        <v>11.180999999999999</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="6"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C45" s="14">
         <v>8192</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D45" s="15">
         <v>6.25E-2</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14">
+      <c r="E45" s="15"/>
+      <c r="F45" s="14">
+        <v>46.7</v>
+      </c>
+      <c r="G45" s="14">
         <v>15.169</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="J45" s="2"/>
+      <c r="K45" s="6"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B46" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="2">
-        <v>8192</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.13680555555555554</v>
-      </c>
-      <c r="F38" s="2">
-        <v>13.622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="14">
-        <v>4096</v>
-      </c>
-      <c r="D40" s="15">
-        <v>1.0138888888888888E-2</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14">
-        <v>14.247999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2048</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4.0879629629629634E-2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>10.041</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2048</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="F42" s="2">
-        <v>14.247999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="14">
-        <v>2048</v>
-      </c>
-      <c r="D43" s="15">
-        <v>2.0636574074074075E-2</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14">
-        <v>13.622</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="14">
-        <v>4096</v>
-      </c>
-      <c r="D45" s="15">
-        <v>4.1192129629629634E-2</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14">
-        <v>15.042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="C46" s="14">
         <v>8192</v>
       </c>
       <c r="D46" s="15">
-        <v>2.809027777777778E-2</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="14">
-        <v>15.452999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="G46" s="14">
+        <v>13.622</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="F47" s="2">
-        <v>15.042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="6"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D48" s="15">
+        <v>3.2476851851851847E-2</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14">
+        <v>7</v>
+      </c>
+      <c r="G48" s="14">
+        <v>13.057</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="6"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="C49" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.0138888888888888E-2</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14">
+        <v>3</v>
+      </c>
+      <c r="G49" s="14">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="6"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="14">
         <v>2048</v>
       </c>
-      <c r="D49" s="15">
-        <v>2.0497685185185185E-2</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14">
+      <c r="D50" s="15">
+        <v>4.0879629629629634E-2</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="G50" s="14">
+        <v>10.041</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14">
+        <v>30</v>
+      </c>
+      <c r="G51" s="14">
         <v>14.247999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="J51" s="2"/>
+      <c r="K51" s="6"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="14">
         <v>2048</v>
       </c>
-      <c r="D50" s="6">
-        <v>3.6018518518518519E-2</v>
-      </c>
-      <c r="F50" s="2">
-        <v>14.247999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="2">
-        <v>4096</v>
-      </c>
-      <c r="D52" s="6">
-        <v>6.1805555555555558E-2</v>
-      </c>
-      <c r="F52" s="2">
-        <v>15.452999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="15">
+        <v>2.0636574074074075E-2</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="14">
+        <v>7</v>
+      </c>
+      <c r="G52" s="14">
+        <v>13.622</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="6"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>44</v>
+        <v>142</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="14">
         <v>4096</v>
       </c>
       <c r="D53" s="15">
+        <v>1.1493055555555555E-2</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="G53" s="14">
+        <v>13.212999999999999</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="6"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="6"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D55" s="15">
         <v>4.1192129629629634E-2</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14">
+      <c r="E55" s="15"/>
+      <c r="F55" s="14">
+        <v>13</v>
+      </c>
+      <c r="G55" s="14">
         <v>15.042</v>
       </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="6"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2.809027777777778E-2</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G56" s="14">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="6"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="14">
+        <v>34</v>
+      </c>
+      <c r="G57" s="14">
+        <v>15.042</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="6"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2.0497685185185185E-2</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="G59" s="14">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="6"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D60" s="15">
+        <v>3.6018518518518519E-2</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G60" s="14">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="6"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="6"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D62" s="15">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="G62" s="14">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="6"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D63" s="15">
+        <v>4.1192129629629634E-2</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="14">
+        <v>7</v>
+      </c>
+      <c r="G63" s="14">
+        <v>15.042</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="6"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2.9756944444444447E-2</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="14">
+        <v>7</v>
+      </c>
+      <c r="G64" s="14">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="6"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="6"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8192</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2.5335648148148149E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15.034000000000001</v>
+      </c>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D67" s="6">
+        <v>9.6296296296296303E-3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="M67" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:B71">
-    <sortCondition ref="B50:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:B82">
+    <sortCondition ref="B60:B82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,6 +2815,7 @@
     <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2"/>
     <col min="11" max="11" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2093,7 +2827,6 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2108,7 +2841,6 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2155,7 +2887,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2189,267 +2921,289 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32000</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
+      <c r="F5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7.5231481481481477E-3</v>
+      </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="2">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3.6574074074074074E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2">
-        <v>50277</v>
+        <v>100289</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G6" s="2">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
-        <v>5.6828703703703702E-3</v>
+        <v>8.8541666666666664E-3</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
-        <v>8.5299999999999994</v>
+        <v>8.4480000000000004</v>
       </c>
       <c r="M6" s="8">
-        <v>1.0416666666666667E-4</v>
+        <v>9.2592592592592588E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2">
-        <v>50257</v>
+        <v>50280</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="6">
-        <v>2.0324074074074074E-2</v>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <v>9.1790000000000003</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="M7" s="8">
-        <v>9.2592592592592588E-5</v>
+        <v>1.7361111111111112E-4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2">
-        <v>32000</v>
-      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>2048</v>
-      </c>
-      <c r="G8" s="2">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.4328703703703703E-2</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <v>9.9109999999999996</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3.9351851851851857E-3</v>
-      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2">
         <v>50277</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G9" s="2">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J9" s="6">
-        <v>6.1342592592592594E-3</v>
+        <v>5.6828703703703702E-3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>8.5299999999999994</v>
       </c>
       <c r="M9" s="8">
-        <v>1.7361111111111112E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2">
-        <v>50295</v>
+        <v>50257</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G10" s="2">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="6">
-        <v>1.7303240740740741E-2</v>
+        <v>2.0324074074074074E-2</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
-        <v>9.1349999999999998</v>
+        <v>9.1790000000000003</v>
       </c>
       <c r="M10" s="8">
-        <v>2.0833333333333335E-4</v>
+        <v>9.2592592592592588E-5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32000</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.4328703703703703E-2</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="2">
+        <v>9.9109999999999996</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3.9351851851851857E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2">
-        <v>250680</v>
+        <v>50277</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G12" s="2">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
       <c r="J12" s="6">
-        <v>3.0624999999999999E-2</v>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
-        <v>8.0139999999999993</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="M12" s="8">
-        <v>2.6620370370370372E-4</v>
+        <v>1.7361111111111112E-4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2">
-        <v>65024</v>
+        <v>50295</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -2459,71 +3213,47 @@
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <v>6</v>
       </c>
       <c r="J13" s="6">
-        <v>1.3506944444444445E-2</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <v>9.2430000000000003</v>
+        <v>9.1349999999999998</v>
       </c>
       <c r="M13" s="8">
-        <v>9.2592592592592588E-5</v>
+        <v>2.0833333333333335E-4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50277</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>2048</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>8</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1.2013888888888888E-2</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="M14" s="8">
-        <v>8.1018518518518516E-5</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
-        <v>50277</v>
+        <v>250680</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -2533,38 +3263,38 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" s="6">
-        <v>2.210648148148148E-2</v>
+        <v>3.0624999999999999E-2</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
-        <v>8.5299999999999994</v>
+        <v>8.0139999999999993</v>
       </c>
       <c r="M15" s="8">
-        <v>8.1018518518518516E-5</v>
+        <v>2.6620370370370372E-4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
-        <v>32000</v>
+        <v>65024</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G16" s="2">
         <v>16</v>
@@ -2573,35 +3303,35 @@
         <v>20</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="6">
-        <v>1.849537037037037E-2</v>
+        <v>1.3506944444444445E-2</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2">
-        <v>10.523</v>
+        <v>9.2430000000000003</v>
       </c>
       <c r="M16" s="8">
-        <v>3.2175925925925926E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
-        <v>32000</v>
+        <v>50277</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -2610,35 +3340,37 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J17" s="6">
-        <v>1.9421296296296294E-2</v>
+        <v>1.2013888888888888E-2</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2">
-        <v>10.52</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="M17" s="8">
-        <v>3.2291666666666666E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2">
-        <v>32000</v>
+        <v>50277</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="G18" s="2">
         <v>16</v>
@@ -2647,31 +3379,31 @@
         <v>20</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" s="6">
-        <v>2.0219907407407409E-2</v>
+        <v>2.210648148148148E-2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
-        <v>10.159000000000001</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="M18" s="8">
-        <v>3.2175925925925926E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -2684,153 +3416,176 @@
         <v>20</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="6">
-        <v>1.8981481481481481E-2</v>
+        <v>1.849537037037037E-2</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
-        <v>9.9429999999999996</v>
+        <v>10.523</v>
       </c>
       <c r="M19" s="8">
-        <v>3.2291666666666666E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.2175925925925926E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2">
         <v>32000</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="G20" s="2">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
       </c>
       <c r="J20" s="6">
-        <v>2.4814814814814817E-2</v>
+        <v>1.9421296296296294E-2</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3.2291666666666666E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32000</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2.0219907407407409E-2</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
         <v>10.159000000000001</v>
       </c>
-      <c r="M20" s="8">
-        <v>3.2986111111111111E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="8">
+        <v>3.2175925925925926E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2">
-        <v>32000</v>
+        <v>151851</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6">
-        <v>2.855324074074074E-2</v>
+        <v>1.8530092592592595E-2</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
-        <v>9.907</v>
+        <v>8.4410000000000007</v>
       </c>
       <c r="M22" s="8">
-        <v>3.2175925925925926E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.9675925925925926E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2">
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
         <v>4096</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2">
         <v>3</v>
       </c>
       <c r="J23" s="6">
-        <v>3.0405092592592591E-2</v>
+        <v>1.8981481481481481E-2</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
-        <v>10.523</v>
+        <v>9.9429999999999996</v>
       </c>
       <c r="M23" s="8">
-        <v>3.3217592592592591E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.2291666666666666E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2">
         <v>32000</v>
@@ -2840,148 +3595,161 @@
         <v>4096</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="6">
-        <v>9.4444444444444442E-2</v>
+        <v>2.4814814814814817E-2</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
-        <v>10.523</v>
+        <v>10.159000000000001</v>
       </c>
       <c r="M24" s="8">
-        <v>3.5185185185185185E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.2986111111111111E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2">
-        <v>32000</v>
+        <v>50280</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="G25" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25" s="6">
-        <v>3.8796296296296294E-2</v>
+        <v>1.7800925925925925E-2</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
-        <v>10.159000000000001</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="M25" s="8">
-        <v>3.2407407407407406E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+        <v>2.5462962962962961E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="6"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2">
-        <v>50277</v>
+        <v>32000</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
         <v>2048</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" s="6">
-        <v>9.4444444444444442E-2</v>
+        <v>2.855324074074074E-2</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2">
-        <v>8.5299999999999994</v>
+        <v>9.907</v>
       </c>
       <c r="M27" s="8">
-        <v>8.1018518518518516E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.2175925925925926E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="2">
-        <v>32004</v>
+        <v>32000</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="G28" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3.0405092592592591E-2</v>
+      </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L28" s="2">
+        <v>10.523</v>
+      </c>
+      <c r="M28" s="8">
+        <v>3.3217592592592591E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D29" s="2">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -2991,253 +3759,328 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="6">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>10.523</v>
+      </c>
+      <c r="M29" s="8">
+        <v>3.5185185185185185E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2">
+        <v>151851</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.15277777777777776</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="2">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1.273148148148148E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2">
-        <v>65024</v>
+        <v>32000</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="G31" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" s="6">
-        <v>9.8611111111111108E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
-        <v>9.2430000000000003</v>
+        <v>10.159000000000001</v>
       </c>
       <c r="M31" s="8">
-        <v>1.6203703703703703E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="2">
-        <v>32000</v>
-      </c>
+        <v>3.2407407407407406E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50277</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>2048</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="M33" s="8">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32004</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <v>8192</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G34" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="2">
-        <v>6</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3.9398148148148147E-2</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <v>10.159000000000001</v>
-      </c>
-      <c r="M32" s="8">
-        <v>1.3773148148148147E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="6"/>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="L34" s="2">
+        <v>10.523</v>
+      </c>
+      <c r="M34" s="8">
+        <v>3.5069444444444445E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2">
+        <v>64000</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>4096</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>9.9429999999999996</v>
+      </c>
+      <c r="M35" s="8">
+        <v>3.3217592592592591E-3</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="14">
-        <v>4096</v>
-      </c>
-      <c r="D37" s="15">
-        <v>6.1342592592592594E-3</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="6"/>
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2">
+        <v>65024</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6">
+        <v>9.8611111111111108E-2</v>
+      </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="L37" s="2">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1.6203703703703703E-4</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2">
+        <v>32000</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="6"/>
+      <c r="F38" s="2">
+        <v>8192</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6</v>
+      </c>
+      <c r="J38" s="6">
+        <v>3.9398148148148147E-2</v>
+      </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="L38" s="2">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1.3773148148148147E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="14">
-        <v>8192</v>
-      </c>
-      <c r="D39" s="15">
-        <v>3.9398148148148147E-2</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14">
-        <v>10.159000000000001</v>
-      </c>
+      <c r="A39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="6"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3246,40 +4089,41 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="14">
-        <v>2048</v>
-      </c>
-      <c r="D41" s="15">
-        <v>2.210648148148148E-2</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3288,49 +4132,51 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>102</v>
+        <v>124</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C43" s="14">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D43" s="15">
-        <v>3.0405092592592591E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
-        <v>10.523</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G43" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C44" s="14">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D44" s="15">
-        <v>2.0219907407407409E-2</v>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
-        <v>10.159000000000001</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="14">
+        <v>8.5299999999999994</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
@@ -3339,22 +4185,14 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="14">
-        <v>2048</v>
-      </c>
-      <c r="D45" s="15">
-        <v>1.2013888888888888E-2</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14">
-        <v>8.5299999999999994</v>
-      </c>
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3364,15 +4202,25 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="A46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3.9398148148148147E-2</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14">
+        <v>46.7</v>
+      </c>
+      <c r="G46" s="14">
+        <v>10.159000000000001</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="6"/>
@@ -3381,39 +4229,39 @@
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4096</v>
-      </c>
-      <c r="D47" s="6">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="F47" s="2">
-        <v>10.523</v>
-      </c>
+      <c r="A47" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1.7800925925925925E-2</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14">
+        <v>7</v>
+      </c>
+      <c r="G47" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="14">
-        <v>8192</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1.9421296296296294E-2</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14">
-        <v>10.52</v>
-      </c>
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3422,82 +4270,1535 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D49" s="15">
+        <v>2.210648148148148E-2</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G49" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14">
+        <v>14</v>
+      </c>
+      <c r="G50" s="14">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1.8530092592592595E-2</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14">
+        <v>7</v>
+      </c>
+      <c r="G51" s="14">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14">
+        <v>13</v>
+      </c>
+      <c r="G53" s="14">
+        <v>10.523</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D54" s="15">
+        <v>2.0219907407407409E-2</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G54" s="14">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1.2013888888888888E-2</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="G55" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="21">
+        <v>4096</v>
+      </c>
+      <c r="D57" s="22">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="21">
+        <v>13</v>
+      </c>
+      <c r="G57" s="21">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1.9421296296296294E-2</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14">
+        <v>7</v>
+      </c>
+      <c r="G58" s="14">
+        <v>10.52</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D60" s="15">
+        <v>1.849537037037037E-2</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14">
+        <v>7</v>
+      </c>
+      <c r="G60" s="14">
+        <v>10.523</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D61" s="15">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>40</v>
+      </c>
+      <c r="G61" s="14">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D62" s="15">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G62" s="14">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D63" s="15">
+        <v>5.6828703703703702E-3</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="G63" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="14">
+        <v>4096</v>
+      </c>
+      <c r="D64" s="15">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="G64" s="14">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="14">
+        <v>8192</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14">
+        <v>34</v>
+      </c>
+      <c r="G65" s="14">
+        <v>10.523</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D67" s="6">
+        <v>8.8541666666666664E-3</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.4480000000000004</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1.3506944444444445E-2</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D69" s="6">
+        <v>3.0624999999999999E-2</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="M69" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:B71">
-    <sortCondition ref="B49:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:B68">
+    <sortCondition ref="B62:B68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95621A32-E1E5-4D71-A40C-0AB39D85427D}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="32">
+        <v>186</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.9756944444444447E-2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>7</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F3" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="32">
+        <v>175</v>
+      </c>
+      <c r="I3" s="33">
+        <v>1.7800925925925925E-2</v>
+      </c>
+      <c r="J3" s="34">
+        <v>7</v>
+      </c>
+      <c r="K3" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L3" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="32">
+        <v>217</v>
+      </c>
+      <c r="C4" s="33">
+        <v>4.0879629629629634E-2</v>
+      </c>
+      <c r="D4" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F4" s="34">
+        <v>10.041</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="32">
+        <v>116</v>
+      </c>
+      <c r="I4" s="33">
+        <v>3.0624999999999999E-2</v>
+      </c>
+      <c r="J4" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="K4" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L4" s="34">
+        <v>8.0139999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="32">
+        <v>198</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="D5" s="34">
+        <v>34</v>
+      </c>
+      <c r="E5" s="34">
+        <v>4.032</v>
+      </c>
+      <c r="F5" s="34">
+        <v>15.042</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="32">
+        <v>152</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" s="34">
+        <v>34</v>
+      </c>
+      <c r="K5" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L5" s="34">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="32">
+        <v>255</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F6" s="34">
+        <v>11.180999999999999</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="32">
+        <v>154</v>
+      </c>
+      <c r="I6" s="33">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="J6" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="K6" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L6" s="34">
+        <v>9.1449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="32">
+        <v>244</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="D7" s="34">
+        <v>40</v>
+      </c>
+      <c r="E7" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F7" s="34">
+        <v>13.622</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="32">
+        <v>159</v>
+      </c>
+      <c r="I7" s="33">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="J7" s="34">
+        <v>40</v>
+      </c>
+      <c r="K7" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L7" s="34">
+        <v>9.2430000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="32">
+        <v>204</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4.1192129629629634E-2</v>
+      </c>
+      <c r="D8" s="34">
+        <v>13</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4096</v>
+      </c>
+      <c r="F8" s="34">
+        <v>15.042</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="32">
+        <v>168</v>
+      </c>
+      <c r="I8" s="33">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="J8" s="34">
+        <v>13</v>
+      </c>
+      <c r="K8" s="34">
+        <v>4096</v>
+      </c>
+      <c r="L8" s="34">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="32">
+        <v>189</v>
+      </c>
+      <c r="C9" s="33">
+        <v>4.1192129629629634E-2</v>
+      </c>
+      <c r="D9" s="34">
+        <v>7</v>
+      </c>
+      <c r="E9" s="34">
+        <v>4096</v>
+      </c>
+      <c r="F9" s="34">
+        <v>15.042</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="32">
+        <v>159</v>
+      </c>
+      <c r="I9" s="33">
+        <v>1.849537037037037E-2</v>
+      </c>
+      <c r="J9" s="34">
+        <v>7</v>
+      </c>
+      <c r="K9" s="34">
+        <v>4096</v>
+      </c>
+      <c r="L9" s="34">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="32">
+        <v>201</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.809027777777778E-2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F10" s="34">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="32">
+        <v>166</v>
+      </c>
+      <c r="I10" s="33">
+        <v>2.0219907407407409E-2</v>
+      </c>
+      <c r="J10" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="K10" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L10" s="34">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="32">
+        <v>252</v>
+      </c>
+      <c r="C11" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="34">
+        <v>46.7</v>
+      </c>
+      <c r="E11" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F11" s="34">
+        <v>15.169</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="32">
+        <v>178</v>
+      </c>
+      <c r="I11" s="33">
+        <v>3.9398148148148147E-2</v>
+      </c>
+      <c r="J11" s="34">
+        <v>46.7</v>
+      </c>
+      <c r="K11" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L11" s="34">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="32">
+        <v>215</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D12" s="34">
+        <v>30</v>
+      </c>
+      <c r="E12" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F12" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="32">
+        <v>190</v>
+      </c>
+      <c r="I12" s="33">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="J12" s="34">
+        <v>30</v>
+      </c>
+      <c r="K12" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L12" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="32">
+        <v>192</v>
+      </c>
+      <c r="C13" s="33">
+        <v>3.6018518518518519E-2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="E13" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F13" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="32">
+        <v>174</v>
+      </c>
+      <c r="I13" s="33">
+        <v>2.210648148148148E-2</v>
+      </c>
+      <c r="J13" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="K13" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L13" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="32">
+        <v>256</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="D14" s="34">
+        <v>14</v>
+      </c>
+      <c r="E14" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F14" s="34">
+        <v>13.057</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="32">
+        <v>173</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="J14" s="34">
+        <v>14</v>
+      </c>
+      <c r="K14" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L14" s="34">
+        <v>8.4410000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="32">
+        <v>223</v>
+      </c>
+      <c r="C15" s="33">
+        <v>3.2476851851851847E-2</v>
+      </c>
+      <c r="D15" s="34">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F15" s="34">
+        <v>13.057</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="32">
+        <v>172</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1.8530092592592595E-2</v>
+      </c>
+      <c r="J15" s="34">
+        <v>7</v>
+      </c>
+      <c r="K15" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L15" s="34">
+        <v>8.4410000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="32">
+        <v>211</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1.1493055555555555E-2</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1.6</v>
+      </c>
+      <c r="E16" s="34">
+        <v>4096</v>
+      </c>
+      <c r="F16" s="34">
+        <v>13.212999999999999</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="32">
+        <v>140</v>
+      </c>
+      <c r="I16" s="33">
+        <v>8.8541666666666664E-3</v>
+      </c>
+      <c r="J16" s="34">
+        <v>1.6</v>
+      </c>
+      <c r="K16" s="34">
+        <v>4096</v>
+      </c>
+      <c r="L16" s="34">
+        <v>8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="32">
+        <v>217</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.0138888888888888E-2</v>
+      </c>
+      <c r="D17" s="34">
+        <v>3</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4096</v>
+      </c>
+      <c r="F17" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="34">
+        <v>190</v>
+      </c>
+      <c r="I17" s="33">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3</v>
+      </c>
+      <c r="K17" s="34">
+        <v>4096</v>
+      </c>
+      <c r="L17" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="32">
+        <v>214</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2.0636574074074075E-2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>7</v>
+      </c>
+      <c r="E18" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F18" s="34">
+        <v>13.622</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="32">
+        <v>130</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1.3506944444444445E-2</v>
+      </c>
+      <c r="J18" s="34">
+        <v>7</v>
+      </c>
+      <c r="K18" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L18" s="34">
+        <v>9.2430000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="32">
+        <v>181</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2.5335648148148149E-2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8192</v>
+      </c>
+      <c r="F19" s="34">
+        <v>15.034000000000001</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="32">
+        <v>161</v>
+      </c>
+      <c r="I19" s="33">
+        <v>1.9421296296296294E-2</v>
+      </c>
+      <c r="J19" s="34">
+        <v>7</v>
+      </c>
+      <c r="K19" s="34">
+        <v>8192</v>
+      </c>
+      <c r="L19" s="34">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="32">
+        <v>195</v>
+      </c>
+      <c r="C20" s="33">
+        <v>2.0497685185185185E-2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>6.9</v>
+      </c>
+      <c r="E20" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F20" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="32">
+        <v>166</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1.2013888888888888E-2</v>
+      </c>
+      <c r="J20" s="34">
+        <v>6.9</v>
+      </c>
+      <c r="K20" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L20" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="32">
+        <v>173</v>
+      </c>
+      <c r="C21" s="33">
+        <v>9.6296296296296303E-3</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2.8</v>
+      </c>
+      <c r="E21" s="34">
+        <v>2048</v>
+      </c>
+      <c r="F21" s="34">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="32">
+        <v>154</v>
+      </c>
+      <c r="I21" s="33">
+        <v>5.6828703703703702E-3</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2.8</v>
+      </c>
+      <c r="K21" s="34">
+        <v>2048</v>
+      </c>
+      <c r="L21" s="34">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="32">
+        <v>189</v>
+      </c>
+      <c r="C22" s="33">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="D22" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="E22" s="34">
+        <v>4096</v>
+      </c>
+      <c r="F22" s="34">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="32">
+        <v>153</v>
+      </c>
+      <c r="I22" s="33">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="J22" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="K22" s="34">
+        <v>4096</v>
+      </c>
+      <c r="L22" s="34">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>""""&amp;A3&amp;""" : { ""pplu-1"":"&amp;B3&amp;"; ""time"":"&amp;INT(C3*24*6000)/100&amp;"; ""size"":"&amp;D3&amp;"; ""sequence"":"&amp;E3&amp;"; ""tokens"":"&amp;F3&amp;" };"</f>
+        <v>"allenai/OLMo-7B" : { "pplu-1":186; "time":42,85; "size":7; "sequence":2048; "tokens":14,248 };</v>
+      </c>
+      <c r="G31" t="str">
+        <f>""""&amp;G3&amp;""" : { ""pplu-1"":"&amp;H3&amp;"; ""time"":"&amp;INT(I3*24*6000)/100&amp;"; ""size"":"&amp;J3&amp;"; ""sequence"":"&amp;K3&amp;"; ""tokens"":"&amp;L3&amp;" };"</f>
+        <v>"allenai/OLMo-7B" : { "pplu-1":175; "time":25,63; "size":7; "sequence":2048; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A50" si="0">""""&amp;A4&amp;""" : { ""pplu-1"":"&amp;B4&amp;"; ""time"":"&amp;INT(C4*24*6000)/100&amp;"; ""size"":"&amp;D4&amp;"; ""sequence"":"&amp;E4&amp;"; ""tokens"":"&amp;F4&amp;" };"</f>
+        <v>"bigscience/bloomz-7b1-mt" : { "pplu-1":217; "time":58,86; "size":7,1; "sequence":2048; "tokens":10,041 };</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:G50" si="1">""""&amp;G4&amp;""" : { ""pplu-1"":"&amp;H4&amp;"; ""time"":"&amp;INT(I4*24*6000)/100&amp;"; ""size"":"&amp;J4&amp;"; ""sequence"":"&amp;K4&amp;"; ""tokens"":"&amp;L4&amp;" };"</f>
+        <v>"bigscience/bloomz-7b1-mt" : { "pplu-1":116; "time":44,1; "size":7,1; "sequence":2048; "tokens":8,014 };</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>"codellama/CodeLlama-34b-hf [4 bits]" : { "pplu-1":198; "time":220; "size":34; "sequence":4,032; "tokens":15,042 };</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>"codellama/CodeLlama-34b-hf [4 bits]" : { "pplu-1":152; "time":160; "size":34; "sequence":8192; "tokens":10,523 };</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>"croissantllm/CroissantLLMBase" : { "pplu-1":255; "time":8,5; "size":1,3; "sequence":2048; "tokens":11,181 };</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>"croissantllm/CroissantLLMBase" : { "pplu-1":154; "time":10,83; "size":1,3; "sequence":2048; "tokens":9,145 };</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>"lightonai/alfred-40b-1023 [4 bits]" : { "pplu-1":244; "time":197; "size":40; "sequence":8192; "tokens":13,622 };</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>"lightonai/alfred-40b-1023 [4 bits]" : { "pplu-1":159; "time":142; "size":40; "sequence":8192; "tokens":9,243 };</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>"meta-llama/Llama-2-13b-hf [8 bits]" : { "pplu-1":204; "time":59,31; "size":13; "sequence":4096; "tokens":15,042 };</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>"meta-llama/Llama-2-13b-hf [8 bits]" : { "pplu-1":168; "time":43,78; "size":13; "sequence":4096; "tokens":10,523 };</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>"meta-llama/Llama-2-7b-hf" : { "pplu-1":189; "time":59,31; "size":7; "sequence":4096; "tokens":15,042 };</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>"meta-llama/Llama-2-7b-hf" : { "pplu-1":159; "time":26,63; "size":7; "sequence":4096; "tokens":10,523 };</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>"mistralai/Mistral-7B-v0,1" : { "pplu-1":201; "time":40,45; "size":7,3; "sequence":8192; "tokens":15,453 };</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>"mistralai/Mistral-7B-v0,1" : { "pplu-1":166; "time":29,11; "size":7,3; "sequence":8192; "tokens":10,159 };</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>"mistralai/Mixtral-8x7B-v0,1 [4 bits]" : { "pplu-1":252; "time":90; "size":46,7; "sequence":8192; "tokens":15,169 };</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>"mistralai/Mixtral-8x7B-v0,1 [4 bits]" : { "pplu-1":178; "time":56,73; "size":46,7; "sequence":8192; "tokens":10,159 };</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>"mosaicml/mpt-30b [4 bits]" : { "pplu-1":215; "time":252; "size":30; "sequence":2048; "tokens":14,248 };</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>"mosaicml/mpt-30b [4 bits]" : { "pplu-1":190; "time":136; "size":30; "sequence":2048; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>"mosaicml/mpt-7b" : { "pplu-1":192; "time":51,86; "size":6,7; "sequence":2048; "tokens":14,248 };</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>"mosaicml/mpt-7b" : { "pplu-1":174; "time":31,83; "size":6,7; "sequence":2048; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Qwen/Qwen-14B [8 bits]" : { "pplu-1":256; "time":318; "size":14; "sequence":8192; "tokens":13,057 };</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>"Qwen/Qwen-14B [8 bits]" : { "pplu-1":173; "time":220; "size":14; "sequence":8192; "tokens":8,441 };</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Qwen/Qwen-7B" : { "pplu-1":223; "time":46,76; "size":7; "sequence":8192; "tokens":13,057 };</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>"Qwen/Qwen-7B" : { "pplu-1":172; "time":26,68; "size":7; "sequence":8192; "tokens":8,441 };</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>"stabilityai/stablelm-2-1_6b" : { "pplu-1":211; "time":16,55; "size":1,6; "sequence":4096; "tokens":13,213 };</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>"stabilityai/stablelm-2-1_6b" : { "pplu-1":140; "time":12,75; "size":1,6; "sequence":4096; "tokens":8,448 };</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>"stabilityai/stablelm-3b-4e1t" : { "pplu-1":217; "time":14,6; "size":3; "sequence":4096; "tokens":14,248 };</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>"stabilityai/stablelm-3b-4e1t" : { "pplu-1":190; "time":8,83; "size":3; "sequence":4096; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>"tiiuae/falcon-7b" : { "pplu-1":214; "time":29,71; "size":7; "sequence":2048; "tokens":13,622 };</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>"tiiuae/falcon-7b" : { "pplu-1":130; "time":19,45; "size":7; "sequence":2048; "tokens":9,243 };</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>"togethercomputer/LLaMA-2-7B-32K" : { "pplu-1":181; "time":36,48; "size":7; "sequence":8192; "tokens":15,034 };</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>"togethercomputer/LLaMA-2-7B-32K" : { "pplu-1":161; "time":27,96; "size":7; "sequence":8192; "tokens":10,52 };</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>"togethercomputer/RedPajama-INCITE-7B-Base" : { "pplu-1":195; "time":29,51; "size":6,9; "sequence":2048; "tokens":14,248 };</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>"togethercomputer/RedPajama-INCITE-7B-Base" : { "pplu-1":166; "time":17,3; "size":6,9; "sequence":2048; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>"togethercomputer/RedPajama-INCITE-Base-3B-v1" : { "pplu-1":173; "time":13,86; "size":2,8; "sequence":2048; "tokens":14,248 };</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>"togethercomputer/RedPajama-INCITE-Base-3B-v1" : { "pplu-1":154; "time":8,18; "size":2,8; "sequence":2048; "tokens":8,53 };</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>"upstage/SOLAR-10,7B-v1,0 [8 bits]" : { "pplu-1":189; "time":89; "size":10,7; "sequence":4096; "tokens":15,453 };</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>"upstage/SOLAR-10,7B-v1,0 [8 bits]" : { "pplu-1":153; "time":55,86; "size":10,7; "sequence":4096; "tokens":10,159 };</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Perplexity tests 01_2024.xlsx
+++ b/Perplexity tests 01_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/196f0b5afced95ca/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="919" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6098FB0-E2EB-4F54-B690-7982386C39FA}"/>
+  <xr:revisionPtr revIDLastSave="1198" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F308D88-7C44-413C-8CAB-07A035DC7AE8}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="516">
   <si>
     <t>TinyLlama/TinyLlama-1.1B-intermediate-step-1195k-token-2.5T</t>
   </si>
@@ -254,9 +254,6 @@
     <t>3.045</t>
   </si>
   <si>
-    <t>-&gt; RTX A6000 Ada : model 25,978 MB, max used 43,988 MB</t>
-  </si>
-  <si>
     <t>#5</t>
   </si>
   <si>
@@ -1296,6 +1293,415 @@
   </si>
   <si>
     <t>4.952</t>
+  </si>
+  <si>
+    <t>8.407</t>
+  </si>
+  <si>
+    <t>6.536</t>
+  </si>
+  <si>
+    <t>2,628 MB</t>
+  </si>
+  <si>
+    <t>16 x 2048</t>
+  </si>
+  <si>
+    <t>14,633 MB</t>
+  </si>
+  <si>
+    <t>3,142 MB</t>
+  </si>
+  <si>
+    <t>4 x 4096</t>
+  </si>
+  <si>
+    <t>21,964 MB</t>
+  </si>
+  <si>
+    <t>4.266</t>
+  </si>
+  <si>
+    <t>5.884</t>
+  </si>
+  <si>
+    <t>5,366 MB</t>
+  </si>
+  <si>
+    <t>6 x 4096</t>
+  </si>
+  <si>
+    <t>4.579</t>
+  </si>
+  <si>
+    <t>4.716</t>
+  </si>
+  <si>
+    <t>19,521 MB</t>
+  </si>
+  <si>
+    <t>5,478 MB</t>
+  </si>
+  <si>
+    <t>14,940 MB</t>
+  </si>
+  <si>
+    <t>6.102</t>
+  </si>
+  <si>
+    <t>6.281</t>
+  </si>
+  <si>
+    <t>8,205 MB</t>
+  </si>
+  <si>
+    <t>1 x 8192</t>
+  </si>
+  <si>
+    <t>22,457 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.257 </t>
+  </si>
+  <si>
+    <t>7.386</t>
+  </si>
+  <si>
+    <t>12,916 MB</t>
+  </si>
+  <si>
+    <t>18,925 MB</t>
+  </si>
+  <si>
+    <t>5.103</t>
+  </si>
+  <si>
+    <t>4.651</t>
+  </si>
+  <si>
+    <t>14,324 MB</t>
+  </si>
+  <si>
+    <t>2 x 8192</t>
+  </si>
+  <si>
+    <t>20,333 MB</t>
+  </si>
+  <si>
+    <t>4.662</t>
+  </si>
+  <si>
+    <t>3.858</t>
+  </si>
+  <si>
+    <t>12,682 MB</t>
+  </si>
+  <si>
+    <t>22,153 MB</t>
+  </si>
+  <si>
+    <t>5.518</t>
+  </si>
+  <si>
+    <t>5.680</t>
+  </si>
+  <si>
+    <t>13,268 MB</t>
+  </si>
+  <si>
+    <t>6 x 8192</t>
+  </si>
+  <si>
+    <t>17,849 MB</t>
+  </si>
+  <si>
+    <t>6.115</t>
+  </si>
+  <si>
+    <t>6.668</t>
+  </si>
+  <si>
+    <t>13,364 MB</t>
+  </si>
+  <si>
+    <t>19,373 MB</t>
+  </si>
+  <si>
+    <t>13,271 MB</t>
+  </si>
+  <si>
+    <t>8 x 2048</t>
+  </si>
+  <si>
+    <t>18,008 MB</t>
+  </si>
+  <si>
+    <t>5.385</t>
+  </si>
+  <si>
+    <t>5.543</t>
+  </si>
+  <si>
+    <t>4.122</t>
+  </si>
+  <si>
+    <t>5.791</t>
+  </si>
+  <si>
+    <t>14,731 MB</t>
+  </si>
+  <si>
+    <t>21,878 MB</t>
+  </si>
+  <si>
+    <t>10,588 MB</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+  </si>
+  <si>
+    <t>20,114 MB</t>
+  </si>
+  <si>
+    <t>4.973</t>
+  </si>
+  <si>
+    <t>4.110</t>
+  </si>
+  <si>
+    <t>12,873 MB</t>
+  </si>
+  <si>
+    <t>3 x 4096</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; RTX A6000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ampere</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : model 25,978 MB, max used 43,988 MB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-&gt; RTX A6000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ampere</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : model 25,978 MB, max used 43,988 MB</t>
+    </r>
+  </si>
+  <si>
+    <t>3.677</t>
+  </si>
+  <si>
+    <t>3.043</t>
+  </si>
+  <si>
+    <r>
+      <t>-&gt; RTX A6000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ada</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : model 25,978 MB, max used 43,988 MB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; RTX A6000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ada</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : model 25,978 MB, max used 43,988 MB</t>
+    </r>
+  </si>
+  <si>
+    <t>17,586 MB</t>
+  </si>
+  <si>
+    <t>4.684</t>
+  </si>
+  <si>
+    <t>4.269</t>
+  </si>
+  <si>
+    <t>15,055 MB</t>
+  </si>
+  <si>
+    <t>5.293</t>
+  </si>
+  <si>
+    <t>3.227</t>
+  </si>
+  <si>
+    <t>23,962 MB</t>
+  </si>
+  <si>
+    <t>3.551</t>
+  </si>
+  <si>
+    <t>4.989</t>
+  </si>
+  <si>
+    <t>9.446</t>
+  </si>
+  <si>
+    <t>6.626</t>
+  </si>
+  <si>
+    <t>6.489</t>
+  </si>
+  <si>
+    <t>6.265</t>
+  </si>
+  <si>
+    <t>5.759</t>
+  </si>
+  <si>
+    <t>5.291</t>
+  </si>
+  <si>
+    <t>7.457</t>
+  </si>
+  <si>
+    <t>6.836</t>
+  </si>
+  <si>
+    <t>7.522</t>
+  </si>
+  <si>
+    <t>7.301</t>
+  </si>
+  <si>
+    <t>6.889</t>
+  </si>
+  <si>
+    <t>6.315</t>
+  </si>
+  <si>
+    <t>6.721</t>
+  </si>
+  <si>
+    <t>10.690</t>
+  </si>
+  <si>
+    <t>7.008</t>
+  </si>
+  <si>
+    <t>4.468</t>
+  </si>
+  <si>
+    <t>5.329</t>
+  </si>
+  <si>
+    <t>3.984</t>
+  </si>
+  <si>
+    <t>22,577 MB</t>
+  </si>
+  <si>
+    <t>25,978 MB</t>
+  </si>
+  <si>
+    <t>43,988 MB</t>
+  </si>
+  <si>
+    <t>41,307 MB</t>
+  </si>
+  <si>
+    <t>6.483</t>
+  </si>
+  <si>
+    <t>3.952</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1711,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,6 +1792,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1441,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1526,12 +1964,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,6 +1981,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1890,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E108E7C-6D3F-430F-A82B-2C6877D9A04D}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="H44" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,48 +2353,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="I3" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K3" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="M3" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -1959,136 +2402,148 @@
         <v>45289</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="32">
         <v>2048</v>
       </c>
       <c r="I4" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+    <row r="5" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
         <v>45300</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="40">
+        <v>2048</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="32">
-        <v>2048</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="K5" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>45309</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
-        <v>45309</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="40">
+        <v>4096</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="H6" s="32">
-        <v>4096</v>
-      </c>
-      <c r="I6" s="32" t="s">
+      <c r="J6" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>45313</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="32">
         <v>32768</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -2099,31 +2554,31 @@
         <v>45313</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>349</v>
       </c>
       <c r="H8" s="32">
         <v>32768</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -2134,31 +2589,31 @@
         <v>45321</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="D9" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="H9" s="32">
         <v>2048</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -2166,115 +2621,121 @@
     </row>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="E13" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="G13" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="H13" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="I13" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="J13" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K13" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L13" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="M13" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="M13" s="30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+    </row>
+    <row r="14" spans="1:13" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
         <v>45050</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="G14" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="H14" s="40">
+        <v>2048</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="32">
-        <v>2048</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="J14" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>45121</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="H15" s="32">
         <v>8192</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -2285,171 +2746,183 @@
         <v>45123</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>230</v>
-      </c>
       <c r="G16" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16" s="32">
         <v>2048</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+    <row r="17" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
         <v>45198</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="G17" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="40">
+        <v>4096</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="32">
-        <v>4096</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>45273</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>238</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>239</v>
       </c>
       <c r="H18" s="32">
         <v>2048</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+    <row r="19" spans="1:13" s="36" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
         <v>45313</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" s="32">
+      <c r="H19" s="40">
         <v>32768</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="I19" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>45321</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>243</v>
-      </c>
       <c r="G20" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" s="32">
         <v>2048</v>
       </c>
       <c r="I20" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -2457,226 +2930,244 @@
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="F24" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="H24" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="I24" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="J24" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K24" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L24" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="M24" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="M24" s="30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="38" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+    </row>
+    <row r="25" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="39">
         <v>44843</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="43" t="s">
+      <c r="G25" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="H25" s="40">
+        <v>2048</v>
+      </c>
+      <c r="I25" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="42">
+      <c r="J25" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="39">
+        <v>45040</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="40">
         <v>2048</v>
       </c>
-      <c r="I25" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="L25" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="M25" s="44" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
-        <v>45040</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" s="32" t="s">
+      <c r="I26" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="H26" s="32">
+      <c r="J26" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="39">
+        <v>45416</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="40">
         <v>2048</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
-        <v>45416</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" s="32" t="s">
+      <c r="I27" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="39">
+        <v>45051</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="H27" s="32">
+      <c r="C28" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="40">
         <v>2048</v>
       </c>
-      <c r="I27" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
-        <v>45051</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="32" t="s">
+      <c r="I28" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="H28" s="32">
-        <v>2048</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="K28" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>45107</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>267</v>
-      </c>
       <c r="G29" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29" s="32">
         <v>8192</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -2687,206 +3178,230 @@
         <v>45113</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>270</v>
-      </c>
       <c r="G30" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H30" s="32">
         <v>2048</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
+    <row r="31" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="39">
         <v>45125</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="40">
+        <v>4096</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H31" s="32">
-        <v>4096</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J31" s="32" t="s">
+      <c r="K31" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="39">
+        <v>45133</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
-        <v>45133</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="40">
+        <v>32768</v>
+      </c>
+      <c r="I32" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H32" s="32">
-        <v>32768</v>
-      </c>
-      <c r="I32" s="32" t="s">
+      <c r="J32" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="39">
+        <v>45189</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31">
-        <v>45189</v>
-      </c>
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="H33" s="40">
+        <v>8192</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="39">
+        <v>45193</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H33" s="32">
+      <c r="C34" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="40">
         <v>8192</v>
       </c>
-      <c r="I33" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
-        <v>45193</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="I34" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="32">
-        <v>8192</v>
-      </c>
-      <c r="I34" s="32" t="s">
+      <c r="J34" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="K34" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>45231</v>
       </c>
       <c r="B35" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>288</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>289</v>
       </c>
       <c r="H35" s="32">
         <v>4096</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -2897,31 +3412,31 @@
         <v>45270</v>
       </c>
       <c r="B36" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>293</v>
-      </c>
       <c r="G36" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H36" s="32">
         <v>8192</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -2932,121 +3447,121 @@
         <v>45313</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>356</v>
-      </c>
       <c r="G37" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="32">
         <v>32768</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="1:13" s="38" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+    <row r="38" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="39">
         <v>45316</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="D38" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H38" s="42">
+      <c r="G38" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" s="40">
         <v>2048</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="J38" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="K38" s="44" t="s">
+      <c r="K38" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="L38" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="L38" s="44" t="s">
+      <c r="M38" s="42" t="s">
         <v>402</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="E42" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="F42" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="G42" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="I42" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="J42" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J42" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K42" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L42" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="M42" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
@@ -3054,171 +3569,189 @@
         <v>45092</v>
       </c>
       <c r="B43" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="G43" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="H43" s="32">
         <v>2048</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
     </row>
-    <row r="44" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
+    <row r="44" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="39">
         <v>45125</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="D44" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="33" t="s">
+      <c r="G44" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="H44" s="40">
+        <v>4096</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="L44" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="39">
+        <v>45193</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="32">
+      <c r="C45" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" s="40">
+        <v>8192</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="39">
+        <v>45272</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="H46" s="40">
         <v>4096</v>
       </c>
-      <c r="I44" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J44" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
-        <v>45193</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="H45" s="32">
-        <v>2048</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
-        <v>45272</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="H46" s="32">
-        <v>4096</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="I46" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="L46" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>45313</v>
       </c>
       <c r="B47" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="D47" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="D47" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>359</v>
-      </c>
       <c r="G47" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H47" s="32">
         <v>32768</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -3226,129 +3759,129 @@
     </row>
     <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="E51" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="F51" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="G51" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="H51" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="I51" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="J51" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J51" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K51" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="M51" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="M51" s="30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="38" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="39">
         <v>45097</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="D52" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="43" t="s">
+      <c r="G52" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="H52" s="40">
+        <v>8192</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="39">
+        <v>45162</v>
+      </c>
+      <c r="B53" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="H52" s="42">
-        <v>8192</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="J52" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="L52" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="38" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="41">
-        <v>45162</v>
-      </c>
-      <c r="B53" s="42" t="s">
+      <c r="C53" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="D53" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="D53" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="43" t="s">
+      <c r="G53" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="G53" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="H53" s="42">
+      <c r="H53" s="40">
         <v>16384</v>
       </c>
-      <c r="I53" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="J53" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K53" s="44" t="s">
+      <c r="I53" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K53" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="L53" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="L53" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="M53" s="44" t="s">
+      <c r="M53" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3357,31 +3890,31 @@
         <v>45231</v>
       </c>
       <c r="B54" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="D54" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>323</v>
-      </c>
       <c r="G54" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H54" s="32">
         <v>4096</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -3389,48 +3922,48 @@
     </row>
     <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="F58" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="G58" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="H58" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="I58" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="J58" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J58" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="K58" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="L58" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="L58" s="30" t="s">
+      <c r="M58" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="M58" s="30" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
@@ -3438,105 +3971,117 @@
         <v>45070</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="D59" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="33" t="s">
+      <c r="G59" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>327</v>
       </c>
       <c r="H59" s="32">
         <v>2048</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
     </row>
-    <row r="60" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="31">
+    <row r="60" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="39">
         <v>45247</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="33" t="s">
+      <c r="G60" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" s="40">
+        <v>8192</v>
+      </c>
+      <c r="I60" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="G60" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="H60" s="32">
-        <v>8192</v>
-      </c>
-      <c r="I60" s="32" t="s">
+      <c r="J60" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="L60" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" s="42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="39">
+        <v>45271</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="J60" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-    </row>
-    <row r="61" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="31">
-        <v>45271</v>
-      </c>
-      <c r="B61" s="32" t="s">
+      <c r="C61" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="D61" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F61" s="33" t="s">
+      <c r="G61" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="G61" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="H61" s="32">
+      <c r="H61" s="40">
         <v>32768</v>
       </c>
-      <c r="I61" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
+      <c r="I61" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J61" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="L61" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="M61" s="42" t="s">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3584,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3678,13 +4223,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D5" s="2">
         <v>32000</v>
@@ -3713,13 +4258,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D6" s="2">
         <v>100289</v>
@@ -3748,13 +4293,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D7" s="2">
         <v>151646</v>
@@ -3775,7 +4320,7 @@
         <v>1.7685185185185182E-2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M7" s="8">
         <v>9.2592592592592588E-5</v>
@@ -3783,13 +4328,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D8" s="2">
         <v>151646</v>
@@ -3810,7 +4355,7 @@
         <v>2.0821759259259259E-2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M8" s="8">
         <v>9.2592592592592588E-5</v>
@@ -3818,13 +4363,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D9" s="2">
         <v>50280</v>
@@ -4028,13 +4573,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D16" s="2">
         <v>151646</v>
@@ -4055,7 +4600,7 @@
         <v>2.8854166666666667E-2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M16" s="8">
         <v>9.2592592592592588E-5</v>
@@ -4063,13 +4608,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D17" s="2">
         <v>122753</v>
@@ -4090,7 +4635,7 @@
         <v>2.6631944444444444E-2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M17" s="8">
         <v>6.134259259259259E-4</v>
@@ -4343,13 +4888,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D26" s="2">
         <v>151851</v>
@@ -4448,13 +4993,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D29" s="2">
         <v>151646</v>
@@ -4475,7 +5020,7 @@
         <v>3.9143518518518515E-2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M29" s="8">
         <v>9.2592592592592588E-5</v>
@@ -4483,13 +5028,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D30" s="2">
         <v>50280</v>
@@ -4518,7 +5063,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>58</v>
@@ -4553,7 +5098,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>59</v>
@@ -4588,24 +5133,24 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="2">
         <v>151851</v>
@@ -4634,7 +5179,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>61</v>
@@ -4669,13 +5214,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B37" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D37" s="2">
         <v>151646</v>
@@ -4696,7 +5241,7 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M37" s="8">
         <v>9.2592592592592588E-5</v>
@@ -4707,13 +5252,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D39" s="2">
         <v>50277</v>
@@ -4742,13 +5287,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D40" s="2">
         <v>32004</v>
@@ -4777,13 +5322,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D41" s="2">
         <v>64000</v>
@@ -4798,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J41" s="6">
         <v>0.2388888888888889</v>
@@ -4815,13 +5360,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D43" s="2">
         <v>65024</v>
@@ -4838,7 +5383,7 @@
       <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="46">
         <v>0.13680555555555554</v>
       </c>
       <c r="L43" s="2">
@@ -4850,7 +5395,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>68</v>
@@ -4873,7 +5418,7 @@
       <c r="I44" s="2">
         <v>6</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="46">
         <v>6.25E-2</v>
       </c>
       <c r="L44" s="2">
@@ -4885,7 +5430,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="M45" s="8"/>
     </row>
@@ -4904,7 +5449,7 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>24</v>
@@ -4927,10 +5472,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="14">
         <v>8192</v>
@@ -4951,10 +5496,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C50" s="14">
         <v>2048</v>
@@ -4975,7 +5520,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>68</v>
@@ -4999,10 +5544,10 @@
     </row>
     <row r="52" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="14">
         <v>8192</v>
@@ -5035,10 +5580,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="C54" s="14">
         <v>8192</v>
@@ -5111,10 +5656,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="14">
         <v>2048</v>
@@ -5159,10 +5704,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="14">
         <v>4096</v>
@@ -5191,7 +5736,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>59</v>
@@ -5239,13 +5784,13 @@
     </row>
     <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="D63" s="15">
         <v>0.15277777777777776</v>
@@ -5323,7 +5868,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="6"/>
@@ -5331,7 +5876,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>61</v>
@@ -5379,10 +5924,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="C70" s="14">
         <v>2048</v>
@@ -5403,7 +5948,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -5470,7 +6015,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5484,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5551,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="2">
         <v>32000</v>
@@ -5585,13 +6130,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D5" s="2">
         <v>32000</v>
@@ -5622,13 +6167,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D6" s="2">
         <v>100289</v>
@@ -5659,13 +6204,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D7" s="2">
         <v>151646</v>
@@ -5696,13 +6241,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D8" s="2">
         <v>151646</v>
@@ -5733,13 +6278,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D9" s="2">
         <v>50280</v>
@@ -5786,10 +6331,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2">
         <v>50277</v>
@@ -5823,10 +6368,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2">
         <v>50257</v>
@@ -5860,10 +6405,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2">
         <v>32000</v>
@@ -5897,10 +6442,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>50277</v>
@@ -5934,10 +6479,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D15" s="2">
         <v>50295</v>
@@ -5968,13 +6513,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D16" s="2">
         <v>151646</v>
@@ -6005,13 +6550,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D17" s="2">
         <v>122753</v>
@@ -6058,10 +6603,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>250680</v>
@@ -6095,10 +6640,10 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>65024</v>
@@ -6132,10 +6677,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>50277</v>
@@ -6171,10 +6716,10 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D22" s="2">
         <v>50277</v>
@@ -6208,10 +6753,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D23" s="2">
         <v>32000</v>
@@ -6245,10 +6790,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="2">
         <v>32000</v>
@@ -6282,10 +6827,10 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D25" s="2">
         <v>32000</v>
@@ -6316,13 +6861,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D26" s="2">
         <v>151851</v>
@@ -6356,10 +6901,10 @@
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D27" s="2">
         <v>64000</v>
@@ -6393,10 +6938,10 @@
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D28" s="2">
         <v>32000</v>
@@ -6427,13 +6972,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D29" s="2">
         <v>151646</v>
@@ -6464,13 +7009,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D30" s="2">
         <v>50280</v>
@@ -6514,13 +7059,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D32" s="2">
         <v>32000</v>
@@ -6551,13 +7096,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D33" s="2">
         <v>32000</v>
@@ -6588,13 +7133,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D34" s="2">
         <v>32000</v>
@@ -6625,13 +7170,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D35" s="2">
         <v>151851</v>
@@ -6662,13 +7207,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D36" s="2">
         <v>32000</v>
@@ -6699,13 +7244,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B37" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D37" s="2">
         <v>151646</v>
@@ -6749,13 +7294,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D39" s="2">
         <v>50277</v>
@@ -6786,13 +7331,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2">
         <v>32004</v>
@@ -6823,13 +7368,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2">
         <v>64000</v>
@@ -6873,13 +7418,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="2">
         <v>65024</v>
@@ -6897,7 +7442,7 @@
       <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="46">
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="K43" s="2"/>
@@ -6910,13 +7455,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D44" s="2">
         <v>32000</v>
@@ -6934,7 +7479,7 @@
       <c r="I44" s="2">
         <v>6</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="46">
         <v>3.9398148148148147E-2</v>
       </c>
       <c r="K44" s="2"/>
@@ -6947,7 +7492,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>70</v>
+        <v>482</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -6976,7 +7521,7 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -6989,7 +7534,7 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>24</v>
@@ -7019,10 +7564,10 @@
     </row>
     <row r="49" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="14">
         <v>2048</v>
@@ -7047,7 +7592,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="14">
         <v>4096</v>
@@ -7088,10 +7633,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="14">
         <v>8192</v>
@@ -7115,10 +7660,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="14">
         <v>2048</v>
@@ -7160,7 +7705,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="14">
         <v>2048</v>
@@ -7184,10 +7729,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="14">
         <v>8192</v>
@@ -7209,10 +7754,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="14">
         <v>8192</v>
@@ -7251,10 +7796,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="14">
         <v>4096</v>
@@ -7281,7 +7826,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="14">
         <v>8192</v>
@@ -7308,7 +7853,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="14">
         <v>2048</v>
@@ -7332,7 +7877,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7349,10 +7894,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="C63" s="17">
         <v>4096</v>
@@ -7373,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="14">
         <v>8192</v>
@@ -7397,7 +7942,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -7417,7 +7962,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="14">
         <v>4096</v>
@@ -7438,10 +7983,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="14">
         <v>8192</v>
@@ -7463,10 +8008,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="14">
         <v>2048</v>
@@ -7490,7 +8035,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="14">
         <v>2048</v>
@@ -7512,10 +8057,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="14">
         <v>4096</v>
@@ -7536,10 +8081,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="14">
         <v>8192</v>
@@ -7559,7 +8104,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -7572,10 +8117,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C73" s="2">
         <v>4096</v>
@@ -7600,7 +8145,7 @@
         <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2">
         <v>2048</v>
@@ -7625,7 +8170,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2">
         <v>2048</v>
@@ -7658,7 +8203,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7672,7 +8217,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7738,8 +8283,8 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>32000</v>
       </c>
@@ -7761,66 +8306,86 @@
       <c r="L4" s="2"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="2">
+    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="35">
         <v>32000</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
         <v>2048</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="35">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="35">
         <v>16</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="2">
+      <c r="J5" s="37">
+        <v>5.2893518518518515E-3</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35">
+        <v>11.797000000000001</v>
+      </c>
+      <c r="M5" s="38">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="35">
         <v>100289</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
         <v>4096</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="35">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="35">
         <v>4</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="37">
+        <v>8.7962962962962968E-3</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35">
+        <v>9.3460000000000001</v>
+      </c>
+      <c r="M6" s="38">
+        <v>8.1018518518518516E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+        <v>359</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>151646</v>
       </c>
@@ -7844,10 +8409,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+        <v>360</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>151646</v>
       </c>
@@ -7871,10 +8436,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>50280</v>
       </c>
@@ -7897,8 +8462,8 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
@@ -7909,39 +8474,49 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="2">
+      <c r="B11" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="35">
         <v>50277</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
         <v>2048</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="35">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="35">
         <v>16</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="37">
+        <v>7.743055555555556E-3</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35">
+        <v>10.581</v>
+      </c>
+      <c r="M11" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>50257</v>
       </c>
@@ -7967,8 +8542,8 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>32000</v>
       </c>
@@ -7990,39 +8565,49 @@
       <c r="L13" s="2"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="2">
+      <c r="B14" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="35">
         <v>50277</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35">
         <v>4096</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="35">
         <v>16</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="35">
         <v>6</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="37">
+        <v>8.0092592592592594E-3</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35">
+        <v>10.581</v>
+      </c>
+      <c r="M14" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>50295</v>
       </c>
@@ -8044,39 +8629,49 @@
       <c r="L15" s="2"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="2">
+    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="35">
         <v>151646</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35">
         <v>8192</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="35">
         <v>16</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="35">
         <v>1</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="37">
+        <v>1.8877314814814816E-2</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M16" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+        <v>362</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>122753</v>
       </c>
@@ -8099,8 +8694,8 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
@@ -8111,15 +8706,15 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>404</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>405</v>
       </c>
       <c r="D19" s="35">
         <v>250680</v>
@@ -8137,214 +8732,284 @@
       <c r="I19" s="35">
         <v>2</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="37">
         <v>3.8449074074074073E-2</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35">
         <v>9.5909999999999993</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="38">
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="2">
+      <c r="B20" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" s="35">
         <v>65024</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35">
         <v>2048</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="35">
         <v>16</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="35">
         <v>6</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J20" s="37">
+        <v>1.4675925925925926E-2</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35">
+        <v>9.718</v>
+      </c>
+      <c r="M20" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="2">
+      <c r="B21" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="35">
         <v>50277</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35">
         <v>2048</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="35">
         <v>16</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="35">
         <v>8</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="J21" s="37">
+        <v>1.622685185185185E-2</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35">
+        <v>10.581</v>
+      </c>
+      <c r="M21" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
+    </row>
+    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="2">
+      <c r="B22" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="35">
         <v>50277</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35">
         <v>2048</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="35">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="35">
         <v>6</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="J22" s="37">
+        <v>2.8414351851851847E-2</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35">
+        <v>10.581</v>
+      </c>
+      <c r="M22" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="2">
+      <c r="B23" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23" s="35">
         <v>32000</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
         <v>4096</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="35">
         <v>16</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="35">
         <v>4</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="J23" s="37">
+        <v>1.6134259259259261E-2</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35">
+        <v>10.286</v>
+      </c>
+      <c r="M23" s="38">
+        <v>2.3148148148148146E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="2">
+      <c r="B24" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="35">
         <v>32000</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35">
         <v>8192</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="35">
         <v>16</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="35">
         <v>2</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="J24" s="37">
+        <v>1.4675925925925926E-2</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35">
+        <v>9.718</v>
+      </c>
+      <c r="M24" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="2">
+      <c r="B25" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D25" s="35">
         <v>32000</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
         <v>8192</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="35">
         <v>16</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="35">
         <v>2</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="2">
+      <c r="J25" s="37">
+        <v>1.9120370370370371E-2</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="M25" s="38">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" s="35">
         <v>151851</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35">
         <v>8192</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="35">
         <v>16</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="35">
         <v>1</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
+      <c r="J26" s="37">
+        <v>1.8900462962962963E-2</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M26" s="38">
+        <v>9.2592592592592588E-5</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>64000</v>
       </c>
@@ -8370,8 +9035,8 @@
       <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>32000</v>
       </c>
@@ -8395,10 +9060,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+        <v>363</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>151646</v>
       </c>
@@ -8420,15 +9085,15 @@
       <c r="L29" s="2"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>165</v>
+    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="B30" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>396</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>397</v>
       </c>
       <c r="D30" s="35">
         <v>50280</v>
@@ -8446,20 +9111,20 @@
       <c r="I30" s="35">
         <v>6</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="37">
         <v>2.0925925925925928E-2</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35">
         <v>10.581</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="38">
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
@@ -8472,10 +9137,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>32000</v>
       </c>
@@ -8497,39 +9162,49 @@
       <c r="L32" s="2"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="2">
+    <row r="33" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="35">
         <v>32000</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
+      <c r="E33" s="35"/>
+      <c r="F33" s="35">
         <v>4096</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="35">
         <v>8</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="35">
         <v>3</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8"/>
+      <c r="J33" s="37">
+        <v>2.8171296296296302E-2</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35">
+        <v>10.286</v>
+      </c>
+      <c r="M33" s="38">
+        <v>2.0833333333333335E-4</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+        <v>120</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>32000</v>
       </c>
@@ -8551,12 +9226,16 @@
       <c r="L34" s="2"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>491</v>
+      </c>
       <c r="D35" s="35">
         <v>151851</v>
       </c>
@@ -8573,44 +9252,60 @@
       <c r="I35" s="35">
         <v>1</v>
       </c>
-      <c r="J35" s="39"/>
+      <c r="J35" s="37">
+        <v>0.24253472222222219</v>
+      </c>
       <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="40"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="2">
+      <c r="L35" s="35">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M35" s="38">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36" s="35">
         <v>32000</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="E36" s="35"/>
+      <c r="F36" s="35">
         <v>4096</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="35">
         <v>8</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="35">
         <v>2</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="8"/>
+      <c r="J36" s="37">
+        <v>3.9560185185185184E-2</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="M36" s="38">
+        <v>2.0833333333333335E-4</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+        <v>386</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2">
         <v>151646</v>
       </c>
@@ -8633,8 +9328,8 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
@@ -8645,15 +9340,15 @@
       <c r="L38" s="2"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>124</v>
+    <row r="39" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B39" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>416</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>417</v>
       </c>
       <c r="D39" s="35">
         <v>50277</v>
@@ -8671,26 +9366,26 @@
       <c r="I39" s="35">
         <v>1</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="37">
         <v>0.12026620370370371</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35">
         <v>10.581</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="38">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
-        <v>135</v>
+    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="B40" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>411</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>412</v>
       </c>
       <c r="D40" s="35">
         <v>32004</v>
@@ -8708,23 +9403,23 @@
       <c r="I40" s="35">
         <v>1</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="37">
         <v>0.10972222222222222</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35">
         <v>10.286</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="38">
         <v>2.199074074074074E-4</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2">
         <v>64000</v>
       </c>
@@ -8747,8 +9442,8 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
@@ -8759,63 +9454,77 @@
       <c r="L42" s="2"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="2">
+    <row r="43" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35">
         <v>65024</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2">
+      <c r="E43" s="35"/>
+      <c r="F43" s="35">
         <v>8192</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="35">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="35">
         <v>4</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="2">
+      <c r="J43" s="45"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35">
+        <v>9.7189999999999994</v>
+      </c>
+      <c r="M43" s="38">
+        <v>2.8935185185185189E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D44" s="35">
         <v>32000</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2">
+      <c r="E44" s="35"/>
+      <c r="F44" s="35">
         <v>8192</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="35">
         <v>4</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="35">
         <v>6</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="8"/>
+      <c r="J44" s="45">
+        <v>4.9652777777777775E-2</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="M44" s="38">
+        <v>4.6296296296296293E-4</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>70</v>
+        <v>477</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8844,7 +9553,7 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -8857,7 +9566,7 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>24</v>
@@ -9245,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA0C4D1-AF9F-4DC3-A713-5CD6DE3DBC3A}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9260,7 +9969,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9326,8 +10035,8 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>32000</v>
       </c>
@@ -9349,66 +10058,86 @@
       <c r="L4" s="2"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="2">
+    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="35">
         <v>32000</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
         <v>2048</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="35">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="35">
         <v>16</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="2">
+      <c r="J5" s="37">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="M5" s="38">
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="35">
         <v>100289</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
         <v>4096</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="35">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="35">
         <v>4</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="37">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35">
+        <v>5.343</v>
+      </c>
+      <c r="M6" s="38">
+        <v>5.7870370370370366E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+        <v>359</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>151646</v>
       </c>
@@ -9432,10 +10161,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+        <v>360</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>151646</v>
       </c>
@@ -9459,10 +10188,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>50280</v>
       </c>
@@ -9485,8 +10214,8 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
@@ -9497,39 +10226,49 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="2">
+      <c r="B11" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="35">
         <v>50277</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
         <v>2048</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="35">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="35">
         <v>16</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="37">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35">
+        <v>5.875</v>
+      </c>
+      <c r="M11" s="38">
+        <v>4.6296296296296294E-5</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>50257</v>
       </c>
@@ -9555,8 +10294,8 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>32000</v>
       </c>
@@ -9578,39 +10317,49 @@
       <c r="L13" s="2"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="2">
+      <c r="B14" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="35">
         <v>50277</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35">
         <v>4096</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="35">
         <v>16</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="35">
         <v>6</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="37">
+        <v>4.3518518518518515E-3</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35">
+        <v>5.875</v>
+      </c>
+      <c r="M14" s="38">
+        <v>8.1018518518518516E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>50295</v>
       </c>
@@ -9632,39 +10381,49 @@
       <c r="L15" s="2"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="2">
+    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" s="35">
         <v>151646</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35">
         <v>8192</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="35">
         <v>16</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="35">
         <v>1</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="37">
+        <v>1.1539351851851851E-2</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M16" s="38">
+        <v>3.4722222222222222E-5</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+        <v>362</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>122753</v>
       </c>
@@ -9687,8 +10446,8 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
@@ -9699,39 +10458,49 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="2">
+      <c r="B19" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="35">
         <v>250680</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35">
         <v>2048</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="35">
         <v>16</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="35">
         <v>2</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="8"/>
+      <c r="J19" s="37">
+        <v>1.6354166666666666E-2</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="M19" s="38">
+        <v>3.4722222222222222E-5</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>65024</v>
       </c>
@@ -9757,8 +10526,8 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>50277</v>
       </c>
@@ -9782,66 +10551,80 @@
       <c r="N21" s="19"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="2">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35">
         <v>50277</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35">
         <v>2048</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="35">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="35">
         <v>6</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="J22" s="37"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35">
+        <v>5.875</v>
+      </c>
+      <c r="M22" s="38">
+        <v>3.4722222222222222E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="2">
+      <c r="B23" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="D23" s="35">
         <v>32000</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
         <v>4096</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="35">
         <v>16</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="35">
         <v>4</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="8"/>
+      <c r="J23" s="37">
+        <v>9.9189814814814817E-3</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35">
+        <v>6.31</v>
+      </c>
+      <c r="M23" s="38">
+        <v>1.6203703703703703E-4</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>32000</v>
       </c>
@@ -9863,39 +10646,49 @@
       <c r="L24" s="2"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="2">
+      <c r="B25" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" s="35">
         <v>32000</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
         <v>8192</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="35">
         <v>16</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="35">
         <v>2</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="8"/>
+      <c r="J25" s="37">
+        <v>1.1203703703703704E-2</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="M25" s="38">
+        <v>1.6203703703703703E-4</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>151851</v>
       </c>
@@ -9921,8 +10714,8 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>64000</v>
       </c>
@@ -9948,8 +10741,8 @@
       <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>32000</v>
       </c>
@@ -9973,10 +10766,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+        <v>363</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>151646</v>
       </c>
@@ -9998,36 +10791,46 @@
       <c r="L29" s="2"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="2">
+    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" s="35">
         <v>50280</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35">
         <v>2048</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="35">
         <v>16</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="35">
         <v>6</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="8"/>
+      <c r="J30" s="37">
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35">
+        <v>5.875</v>
+      </c>
+      <c r="M30" s="38">
+        <v>4.6296296296296294E-5</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
@@ -10040,10 +10843,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>32000</v>
       </c>
@@ -10067,10 +10870,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>32000</v>
       </c>
@@ -10094,10 +10897,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+        <v>120</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>32000</v>
       </c>
@@ -10121,10 +10924,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+        <v>150</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>151851</v>
       </c>
@@ -10148,10 +10951,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+        <v>113</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>32000</v>
       </c>
@@ -10175,10 +10978,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+        <v>386</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2">
         <v>151646</v>
       </c>
@@ -10201,8 +11004,8 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
@@ -10215,10 +11018,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+        <v>123</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>50277</v>
       </c>
@@ -10242,10 +11045,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+        <v>134</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2">
         <v>32004</v>
       </c>
@@ -10269,10 +11072,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2">
         <v>64000</v>
       </c>
@@ -10295,8 +11098,8 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
@@ -10307,63 +11110,83 @@
       <c r="L42" s="2"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="2">
+    <row r="43" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D43" s="35">
         <v>65024</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2">
+      <c r="E43" s="35"/>
+      <c r="F43" s="35">
         <v>8192</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="35">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="35">
         <v>4</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="2">
+      <c r="J43" s="45">
+        <v>7.2754629629629627E-2</v>
+      </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="M43" s="38">
+        <v>1.9675925925925926E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="35">
         <v>32000</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2">
+      <c r="E44" s="35"/>
+      <c r="F44" s="35">
         <v>8192</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="35">
         <v>4</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="35">
         <v>6</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="8"/>
+      <c r="J44" s="45">
+        <v>3.0439814814814819E-2</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="M44" s="38">
+        <v>4.0509259259259258E-4</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10392,7 +11215,7 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -10405,7 +11228,7 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>24</v>
@@ -10438,7 +11261,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -10446,7 +11269,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -10456,45 +11279,45 @@
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>178</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="28">
         <v>186</v>
@@ -10512,7 +11335,7 @@
         <v>14.247999999999999</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="28">
         <v>175</v>
@@ -10570,7 +11393,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="28">
         <v>198</v>
@@ -10588,7 +11411,7 @@
         <v>15.042</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="28">
         <v>152</v>
@@ -10608,7 +11431,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="28">
         <v>255</v>
@@ -10626,7 +11449,7 @@
         <v>11.180999999999999</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="28">
         <v>154</v>
@@ -10646,7 +11469,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="28">
         <v>244</v>
@@ -10664,7 +11487,7 @@
         <v>13.622</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="28">
         <v>159</v>
@@ -10684,7 +11507,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="28">
         <v>204</v>
@@ -10702,7 +11525,7 @@
         <v>15.042</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="28">
         <v>168</v>
@@ -10760,7 +11583,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="28">
         <v>201</v>
@@ -10778,7 +11601,7 @@
         <v>15.452999999999999</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="28">
         <v>166</v>
@@ -10798,7 +11621,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="28">
         <v>252</v>
@@ -10816,7 +11639,7 @@
         <v>15.169</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="28">
         <v>178</v>
@@ -10836,7 +11659,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="28">
         <v>215</v>
@@ -10854,7 +11677,7 @@
         <v>14.247999999999999</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="28">
         <v>190</v>
@@ -10912,7 +11735,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="28">
         <v>256</v>
@@ -10930,7 +11753,7 @@
         <v>13.057</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="28">
         <v>173</v>
@@ -10950,7 +11773,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="28">
         <v>223</v>
@@ -10968,7 +11791,7 @@
         <v>13.057</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="28">
         <v>172</v>
@@ -10988,7 +11811,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="28">
         <v>211</v>
@@ -11006,7 +11829,7 @@
         <v>13.212999999999999</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="28">
         <v>140</v>
@@ -11216,7 +12039,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="28">
         <v>189</v>
@@ -11234,7 +12057,7 @@
         <v>15.452999999999999</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H22" s="28">
         <v>153</v>
@@ -11469,10 +12292,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G1" t="str">
         <f>"python test-models.py "&amp;E1&amp;" perplexity de"</f>
@@ -11488,7 +12311,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G21" si="0">"python test-models.py "&amp;E2&amp;" perplexity de"</f>
@@ -11501,10 +12324,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -11517,10 +12340,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -11533,10 +12356,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -11549,10 +12372,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -11568,7 +12391,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -11581,10 +12404,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -11597,10 +12420,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -11613,10 +12436,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -11632,7 +12455,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -11645,10 +12468,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -11661,10 +12484,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -11677,10 +12500,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -11696,7 +12519,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -11712,7 +12535,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -11728,7 +12551,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -11744,7 +12567,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -11760,7 +12583,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -11773,10 +12596,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -11789,10 +12612,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>

--- a/Perplexity tests 01_2024.xlsx
+++ b/Perplexity tests 01_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/196f0b5afced95ca/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1198" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F308D88-7C44-413C-8CAB-07A035DC7AE8}"/>
+  <xr:revisionPtr revIDLastSave="1406" documentId="10_ncr:40000_{73D10621-46FC-4C05-B0FC-7CFD07E346F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3308E5E7-AC24-4D95-B746-9E6937143E1F}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="582">
   <si>
     <t>TinyLlama/TinyLlama-1.1B-intermediate-step-1195k-token-2.5T</t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>3.984</t>
   </si>
   <si>
-    <t>22,577 MB</t>
-  </si>
-  <si>
     <t>25,978 MB</t>
   </si>
   <si>
@@ -1702,6 +1699,207 @@
   </si>
   <si>
     <t>3.952</t>
+  </si>
+  <si>
+    <t>6.582</t>
+  </si>
+  <si>
+    <t>6.034</t>
+  </si>
+  <si>
+    <t>3.564</t>
+  </si>
+  <si>
+    <t>3.890</t>
+  </si>
+  <si>
+    <t>22,889 MB</t>
+  </si>
+  <si>
+    <t>6.391</t>
+  </si>
+  <si>
+    <t>6.203</t>
+  </si>
+  <si>
+    <t>7.730</t>
+  </si>
+  <si>
+    <t>5.750</t>
+  </si>
+  <si>
+    <t>7.219</t>
+  </si>
+  <si>
+    <t>4.614</t>
+  </si>
+  <si>
+    <t>6.661</t>
+  </si>
+  <si>
+    <t>6.106</t>
+  </si>
+  <si>
+    <t>6.851</t>
+  </si>
+  <si>
+    <t>4.171</t>
+  </si>
+  <si>
+    <t>6.495</t>
+  </si>
+  <si>
+    <t>4.141</t>
+  </si>
+  <si>
+    <t>5.556</t>
+  </si>
+  <si>
+    <t>5.392</t>
+  </si>
+  <si>
+    <t>5.989</t>
+  </si>
+  <si>
+    <t>5.490</t>
+  </si>
+  <si>
+    <t>6.826</t>
+  </si>
+  <si>
+    <t>4.354</t>
+  </si>
+  <si>
+    <t>10.268</t>
+  </si>
+  <si>
+    <t>14.426</t>
+  </si>
+  <si>
+    <t>10.601</t>
+  </si>
+  <si>
+    <t>8.975</t>
+  </si>
+  <si>
+    <t>9.238</t>
+  </si>
+  <si>
+    <t>12.785</t>
+  </si>
+  <si>
+    <t>8.900</t>
+  </si>
+  <si>
+    <t>4.307</t>
+  </si>
+  <si>
+    <t>6.040</t>
+  </si>
+  <si>
+    <t>7.289</t>
+  </si>
+  <si>
+    <t>4.075</t>
+  </si>
+  <si>
+    <t>14.595</t>
+  </si>
+  <si>
+    <t>9.713</t>
+  </si>
+  <si>
+    <t>12.825</t>
+  </si>
+  <si>
+    <t>12.447</t>
+  </si>
+  <si>
+    <t>10.076</t>
+  </si>
+  <si>
+    <t>9.780</t>
+  </si>
+  <si>
+    <t>9.774</t>
+  </si>
+  <si>
+    <t>8.960</t>
+  </si>
+  <si>
+    <t>13.781</t>
+  </si>
+  <si>
+    <t>7.591</t>
+  </si>
+  <si>
+    <t>6.491</t>
+  </si>
+  <si>
+    <t>6.280</t>
+  </si>
+  <si>
+    <t>8.479</t>
+  </si>
+  <si>
+    <t>4.157</t>
+  </si>
+  <si>
+    <t>13.204</t>
+  </si>
+  <si>
+    <t>8.263</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>15,974 MB</t>
+  </si>
+  <si>
+    <t>5,309 MB</t>
+  </si>
+  <si>
+    <t>22,372 MB</t>
+  </si>
+  <si>
+    <t>15,241 MB</t>
+  </si>
+  <si>
+    <t>11,624 MB</t>
+  </si>
+  <si>
+    <t>20,633 MB</t>
+  </si>
+  <si>
+    <t>5,320 MB</t>
+  </si>
+  <si>
+    <t>4 x 2048</t>
+  </si>
+  <si>
+    <t>16,833 MB</t>
+  </si>
+  <si>
+    <t>2,244 MB</t>
+  </si>
+  <si>
+    <t>11,700 MB</t>
+  </si>
+  <si>
+    <t>18,177 MB</t>
+  </si>
+  <si>
+    <t>3,924 MB</t>
+  </si>
+  <si>
+    <t>15,350 MB</t>
+  </si>
+  <si>
+    <t>1,098 MB</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +2023,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,12 +2033,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,7 +2071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1948,49 +2140,43 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2333,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E108E7C-6D3F-430F-A82B-2C6877D9A04D}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="H44" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,1736 +2537,1789 @@
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+    <row r="4" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
         <v>45289</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="41">
         <v>2048</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
         <v>45300</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="41">
         <v>2048</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="43" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+    <row r="6" spans="1:13" s="32" customFormat="1" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
         <v>45309</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="41">
         <v>4096</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="43" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+    <row r="7" spans="1:13" s="32" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
         <v>45313</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="41">
         <v>32768</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="K7" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="32" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="40">
         <v>45313</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="41">
         <v>32768</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="K8" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
         <v>45321</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="41">
         <v>2048</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="K9" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
+    <row r="14" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
         <v>45050</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="41">
         <v>2048</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+    <row r="15" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
         <v>45121</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="41">
         <v>8192</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
         <v>45123</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="41">
         <v>2048</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
         <v>45198</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="41">
         <v>4096</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+    <row r="18" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
         <v>45273</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="41">
         <v>2048</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" s="36" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="K18" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="32" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
         <v>45313</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="41">
         <v>32768</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="43" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+    <row r="20" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
         <v>45321</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="41">
         <v>2048</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="34" t="s">
+      <c r="K20" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="44" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+    <row r="23" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+    <row r="25" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
         <v>44843</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="41">
         <v>2048</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="43" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+    <row r="26" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
         <v>45040</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="41">
         <v>2048</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="43" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+    <row r="27" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
         <v>45416</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="41">
         <v>2048</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="43" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+    <row r="28" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
         <v>45051</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="41">
         <v>2048</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="43" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+    <row r="29" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
         <v>45107</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="41">
         <v>8192</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
         <v>45113</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="41">
         <v>2048</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+    </row>
+    <row r="31" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
         <v>45125</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="41">
         <v>4096</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="M31" s="42" t="s">
+      <c r="M31" s="43" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+    <row r="32" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
         <v>45133</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="41">
         <v>32768</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="L32" s="42" t="s">
+      <c r="L32" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="43" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+    <row r="33" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
         <v>45189</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="41">
         <v>8192</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="43" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="39">
+    <row r="34" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
         <v>45193</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="41">
         <v>8192</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="43" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+    <row r="35" spans="1:13" s="32" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
         <v>45231</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="41">
         <v>4096</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="K35" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
         <v>45270</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="41">
         <v>8192</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
         <v>45313</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="41">
         <v>32768</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
+      <c r="K37" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
         <v>45316</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="41">
         <v>2048</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="M38" s="42" t="s">
+      <c r="M38" s="43" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
+    <row r="39" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+    <row r="41" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M42" s="30" t="s">
+      <c r="M42" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
+    <row r="43" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
         <v>45092</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="41">
         <v>2048</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="39">
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+    </row>
+    <row r="44" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="40">
         <v>45125</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="41" t="s">
+      <c r="F44" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="41">
         <v>4096</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="J44" s="40" t="s">
+      <c r="J44" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="M44" s="42" t="s">
+      <c r="M44" s="43" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+    <row r="45" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="40">
         <v>45193</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="41">
         <v>8192</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="L45" s="42" t="s">
+      <c r="L45" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="43" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="39">
+    <row r="46" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
         <v>45272</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="41">
         <v>4096</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K46" s="42" t="s">
+      <c r="K46" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="M46" s="42" t="s">
+      <c r="M46" s="43" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+    <row r="47" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
         <v>45313</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="41">
         <v>32768</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A49" s="34" t="s">
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+    </row>
+    <row r="48" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A49" s="44" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+    <row r="50" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="30" t="s">
+      <c r="J51" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K51" s="30" t="s">
+      <c r="K51" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="M51" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="39">
+    <row r="52" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
         <v>45097</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="41">
         <v>8192</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J52" s="40" t="s">
+      <c r="J52" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="L52" s="42" t="s">
+      <c r="L52" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="M52" s="42" t="s">
+      <c r="M52" s="43" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="36" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="39">
+    <row r="53" spans="1:13" s="32" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="40">
         <v>45162</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="41">
         <v>16384</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="J53" s="40" t="s">
+      <c r="J53" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="K53" s="42" t="s">
+      <c r="K53" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="L53" s="42" t="s">
+      <c r="L53" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="M53" s="42" t="s">
+      <c r="M53" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="31">
+    <row r="54" spans="1:13" s="32" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
         <v>45231</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="41">
         <v>4096</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J54" s="32" t="s">
+      <c r="J54" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-    </row>
-    <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="34" t="s">
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+    </row>
+    <row r="55" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:13" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="44" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+    <row r="57" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="I58" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J58" s="30" t="s">
+      <c r="J58" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="K58" s="30" t="s">
+      <c r="K58" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="L58" s="30" t="s">
+      <c r="L58" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="M58" s="30" t="s">
+      <c r="M58" s="45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="31">
+    <row r="59" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
         <v>45070</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="G59" s="32" t="s">
+      <c r="G59" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="H59" s="32">
+      <c r="H59" s="41">
         <v>2048</v>
       </c>
-      <c r="I59" s="32" t="s">
+      <c r="I59" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="32" t="s">
+      <c r="J59" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-    </row>
-    <row r="60" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="39">
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+    </row>
+    <row r="60" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
         <v>45247</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="41">
         <v>8192</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="J60" s="40" t="s">
+      <c r="J60" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="32" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H61" s="41">
+        <v>32768</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="L60" s="42" t="s">
+      <c r="L61" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="M60" s="42" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="36" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="39">
-        <v>45271</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="H61" s="40">
-        <v>32768</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="J61" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K61" s="42" t="s">
+      <c r="M61" s="43" t="s">
         <v>511</v>
-      </c>
-      <c r="L61" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="M61" s="42" t="s">
-        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4534,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4330,7 +4569,7 @@
       <c r="A8" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>372</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4575,7 +4814,7 @@
       <c r="A16" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>389</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4610,7 +4849,7 @@
       <c r="A17" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>364</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4995,7 +5234,7 @@
       <c r="A29" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="30" t="s">
         <v>370</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5216,7 +5455,7 @@
       <c r="A37" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>367</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -5383,7 +5622,7 @@
       <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="31">
         <v>0.13680555555555554</v>
       </c>
       <c r="L43" s="2">
@@ -5418,7 +5657,7 @@
       <c r="I44" s="2">
         <v>6</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="L44" s="2">
@@ -6206,7 +6445,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>376</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6243,7 +6482,7 @@
       <c r="A8" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>378</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6515,7 +6754,7 @@
       <c r="A16" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>380</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -6552,7 +6791,7 @@
       <c r="A17" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>387</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6974,7 +7213,7 @@
       <c r="A29" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="30" t="s">
         <v>382</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -7246,7 +7485,7 @@
       <c r="A37" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>384</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -7442,7 +7681,7 @@
       <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="31">
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="K43" s="2"/>
@@ -7479,7 +7718,7 @@
       <c r="I44" s="2">
         <v>6</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="31">
         <v>3.9398148148148147E-2</v>
       </c>
       <c r="K44" s="2"/>
@@ -8203,7 +8442,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8306,1219 +8545,1300 @@
       <c r="L4" s="2"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>32000</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33">
         <v>2048</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>16</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <v>5.2893518518518515E-3</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33">
         <v>11.797000000000001</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="35">
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>100289</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33">
         <v>4096</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>16</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>4</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33">
         <v>9.3460000000000001</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="35">
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="B7" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="33">
         <v>151646</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33">
         <v>8192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="33">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="33">
         <v>1</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J7" s="34">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M7" s="35">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="B8" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="D8" s="33">
         <v>151646</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33">
         <v>8192</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="33">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="33">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J8" s="34">
+        <v>9.6874999999999999E-3</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M8" s="35">
+        <v>4.6296296296296294E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="B9" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="33">
         <v>50280</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2048</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="33">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="33">
         <v>16</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="J9" s="34">
+        <v>4.8379629629629632E-3</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33">
+        <v>10.581</v>
+      </c>
+      <c r="M9" s="35">
+        <v>6.9444444444444444E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>50277</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33">
         <v>2048</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>16</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>16</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="34">
         <v>7.743055555555556E-3</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33">
         <v>10.581</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33">
         <v>50257</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33">
         <v>4096</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="33">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="33">
         <v>4</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
         <v>32000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
         <v>2048</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="33">
         <v>16</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="33">
         <v>16</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>50277</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33">
         <v>4096</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>16</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>6</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="34">
         <v>8.0092592592592594E-3</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33">
         <v>10.581</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="B15" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="D15" s="33">
         <v>50295</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33">
         <v>2048</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="33">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="33">
         <v>6</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="J15" s="34">
+        <v>2.4224537037037034E-2</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33">
+        <v>12.315</v>
+      </c>
+      <c r="M15" s="35">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>151646</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
         <v>8192</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>16</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="33">
         <v>1</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="34">
         <v>1.8877314814814816E-2</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
         <v>9.2639999999999993</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="B17" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D17" s="33">
         <v>122753</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33">
         <v>2048</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="33">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="33">
         <v>4</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="J17" s="34">
+        <v>2.3634259259259258E-2</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33">
+        <v>11.759</v>
+      </c>
+      <c r="M17" s="35">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>250680</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
         <v>2048</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>16</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>2</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="34">
         <v>3.8449074074074073E-2</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33">
         <v>9.5909999999999993</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="35">
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>65024</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33">
         <v>2048</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>16</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>6</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="34">
         <v>1.4675925925925926E-2</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35">
+      <c r="K20" s="33"/>
+      <c r="L20" s="33">
         <v>9.718</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>50277</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33">
         <v>2048</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>16</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>8</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="34">
         <v>1.622685185185185E-2</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35">
+      <c r="K21" s="33"/>
+      <c r="L21" s="33">
         <v>10.581</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
-    </row>
-    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>50277</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
         <v>2048</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="33">
         <v>16</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="33">
         <v>6</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="34">
         <v>2.8414351851851847E-2</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35">
+      <c r="K22" s="33"/>
+      <c r="L22" s="33">
         <v>10.581</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>32000</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33">
         <v>4096</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="33">
         <v>16</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <v>4</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="34">
         <v>1.6134259259259261E-2</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35">
+      <c r="K23" s="33"/>
+      <c r="L23" s="33">
         <v>10.286</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="35">
         <v>2.3148148148148146E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>32000</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
         <v>8192</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="33">
         <v>16</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="33">
         <v>2</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="34">
         <v>1.4675925925925926E-2</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35">
+      <c r="K24" s="33"/>
+      <c r="L24" s="33">
         <v>9.718</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>32000</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
         <v>8192</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <v>16</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="33">
         <v>2</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="34">
         <v>1.9120370370370371E-2</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35">
+      <c r="K25" s="33"/>
+      <c r="L25" s="33">
         <v>10.912000000000001</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="35">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>151851</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33">
         <v>8192</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="33">
         <v>16</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="33">
         <v>1</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="34">
         <v>1.8900462962962963E-2</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35">
+      <c r="K26" s="33"/>
+      <c r="L26" s="33">
         <v>9.2639999999999993</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="35">
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="B27" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D27" s="33">
         <v>64000</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33">
         <v>4096</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="33">
         <v>16</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="33">
         <v>3</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J27" s="34">
+        <v>1.9375E-2</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33">
+        <v>12.903</v>
+      </c>
+      <c r="M27" s="35">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
         <v>32000</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33">
         <v>4096</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="33">
         <v>16</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="33">
         <v>2</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="B29" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="33">
         <v>151646</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33">
         <v>4096</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="33">
         <v>16</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="33">
         <v>1</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="J29" s="34">
+        <v>2.4421296296296292E-2</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="M29" s="35">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>50280</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
         <v>2048</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <v>16</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="33">
         <v>6</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="34">
         <v>2.0925925925925928E-2</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35">
+      <c r="K30" s="33"/>
+      <c r="L30" s="33">
         <v>10.581</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="35">
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="31" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33">
         <v>32000</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
         <v>2048</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="33">
         <v>8</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="33">
         <v>6</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="J32" s="34"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>32000</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33">
         <v>4096</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>8</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>3</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="34">
         <v>2.8171296296296302E-2</v>
       </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35">
+      <c r="K33" s="33"/>
+      <c r="L33" s="33">
         <v>10.286</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="35">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
         <v>32000</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="E34" s="33"/>
+      <c r="F34" s="33">
         <v>4096</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="33">
         <v>4</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="33">
         <v>3</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="J34" s="34"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>151851</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35">
+      <c r="E35" s="33"/>
+      <c r="F35" s="33">
         <v>8192</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>8</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="33">
         <v>1</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="34">
         <v>0.24253472222222219</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35">
+      <c r="K35" s="33"/>
+      <c r="L35" s="33">
         <v>9.2639999999999993</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="35">
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>32000</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35">
+      <c r="E36" s="33"/>
+      <c r="F36" s="33">
         <v>4096</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="33">
         <v>8</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="33">
         <v>2</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="34">
         <v>3.9560185185185184E-2</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35">
+      <c r="K36" s="33"/>
+      <c r="L36" s="33">
         <v>10.912000000000001</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36" s="35">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33">
         <v>151646</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
         <v>4096</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="33">
         <v>8</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="33">
         <v>1</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="J37" s="34"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>50277</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35">
+      <c r="E39" s="33"/>
+      <c r="F39" s="33">
         <v>2048</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="33">
         <v>4</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="33">
         <v>1</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="34">
         <v>0.12026620370370371</v>
       </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33">
         <v>10.581</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>32004</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33">
         <v>8192</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="33">
         <v>4</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="33">
         <v>1</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="34">
         <v>0.10972222222222222</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35">
+      <c r="K40" s="33"/>
+      <c r="L40" s="33">
         <v>10.286</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="35">
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33">
         <v>64000</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33">
         <v>4096</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="33">
         <v>4</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="33">
         <v>1</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="J41" s="34"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35">
+      <c r="B43" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="D43" s="33">
         <v>65024</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35">
+      <c r="E43" s="33"/>
+      <c r="F43" s="33">
         <v>8192</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="33">
         <v>4</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="33">
         <v>4</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35">
+      <c r="J43" s="39">
+        <v>0.12317129629629631</v>
+      </c>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33">
         <v>9.7189999999999994</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="35">
         <v>2.8935185185185189E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>32000</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33">
         <v>8192</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="33">
         <v>4</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>6</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="39">
         <v>4.9652777777777775E-2</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33">
         <v>10.912000000000001</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="35">
         <v>4.6296296296296293E-4</v>
       </c>
     </row>
@@ -9954,8 +10274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA0C4D1-AF9F-4DC3-A713-5CD6DE3DBC3A}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10058,1129 +10378,1300 @@
       <c r="L4" s="2"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>32000</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33">
         <v>2048</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>16</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33">
         <v>6.5389999999999997</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="35">
         <v>1.8518518518518518E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>100289</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33">
         <v>4096</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>16</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>4</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <v>4.9421296296296288E-3</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33">
         <v>5.343</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="B7" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="D7" s="33">
         <v>151646</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33">
         <v>8192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="33">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="33">
         <v>1</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J7" s="34">
+        <v>5.5324074074074069E-3</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M7" s="35">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="B8" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="33">
         <v>151646</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33">
         <v>8192</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="33">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="33">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J8" s="34">
+        <v>6.6898148148148142E-3</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M8" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="B9" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="33">
         <v>50280</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2048</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="33">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="33">
         <v>16</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="J9" s="34">
+        <v>2.7083333333333334E-3</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33">
+        <v>5.875</v>
+      </c>
+      <c r="M9" s="35">
+        <v>4.6296296296296294E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>50277</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33">
         <v>2048</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>16</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>16</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="34">
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33">
         <v>5.875</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="35">
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33">
         <v>50257</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33">
         <v>4096</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="33">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="33">
         <v>4</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
         <v>32000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
         <v>2048</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="33">
         <v>16</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="33">
         <v>16</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>50277</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33">
         <v>4096</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>16</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>6</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="34">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33">
         <v>5.875</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="35">
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="B15" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="33">
         <v>50295</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33">
         <v>2048</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="33">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="33">
         <v>6</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="J15" s="34">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33">
+        <v>6.79</v>
+      </c>
+      <c r="M15" s="35">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>151646</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
         <v>8192</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>16</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="33">
         <v>1</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="34">
         <v>1.1539351851851851E-2</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
         <v>5.2919999999999998</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="35">
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="B17" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="33">
         <v>122753</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33">
         <v>2048</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="33">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="33">
         <v>4</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="J17" s="34">
+        <v>1.3078703703703703E-2</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="M17" s="35">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>250680</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
         <v>2048</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>16</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>2</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="34">
         <v>1.6354166666666666E-2</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33">
         <v>4.1929999999999996</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="35">
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="B20" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="D20" s="33">
         <v>65024</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33">
         <v>2048</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="33">
         <v>16</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="33">
         <v>6</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J20" s="34">
+        <v>9.0046296296296298E-3</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="M20" s="35">
+        <v>3.4722222222222222E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="B21" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="33">
         <v>50277</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33">
         <v>2048</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="33">
         <v>16</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="33">
         <v>8</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="J21" s="34">
+        <v>9.1782407407407403E-3</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33">
+        <v>5.875</v>
+      </c>
+      <c r="M21" s="35">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35">
+      <c r="B22" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="33">
         <v>50277</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
         <v>2048</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="33">
         <v>16</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="33">
         <v>6</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35">
+      <c r="J22" s="34">
+        <v>1.5486111111111112E-2</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33">
         <v>5.875</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="35">
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>32000</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33">
         <v>4096</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="33">
         <v>16</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <v>4</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="34">
         <v>9.9189814814814817E-3</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35">
+      <c r="K23" s="33"/>
+      <c r="L23" s="33">
         <v>6.31</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="35">
         <v>1.6203703703703703E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="B24" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" s="33">
         <v>32000</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
         <v>8192</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="33">
         <v>16</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="33">
         <v>2</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="J24" s="34">
+        <v>1.0150462962962964E-2</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33">
+        <v>6.3079999999999998</v>
+      </c>
+      <c r="M24" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>32000</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
         <v>8192</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <v>16</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="33">
         <v>2</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="34">
         <v>1.1203703703703704E-2</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35">
+      <c r="K25" s="33"/>
+      <c r="L25" s="33">
         <v>6.4960000000000004</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="35">
         <v>1.6203703703703703E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="B26" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="D26" s="33">
         <v>151851</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33">
         <v>8192</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="33">
         <v>16</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="33">
         <v>1</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="J26" s="34">
+        <v>1.1655092592592594E-2</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M26" s="35">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="B27" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="33">
         <v>64000</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33">
         <v>4096</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="33">
         <v>16</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="33">
         <v>3</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J27" s="34">
+        <v>1.0798611111111111E-2</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33">
+        <v>7.1790000000000003</v>
+      </c>
+      <c r="M27" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
         <v>32000</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33">
         <v>4096</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="33">
         <v>16</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="33">
         <v>2</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="B29" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29" s="33">
         <v>151646</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33">
         <v>4096</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="33">
         <v>16</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="33">
         <v>1</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="J29" s="34">
+        <v>1.4525462962962964E-2</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M29" s="35">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>50280</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
         <v>2048</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <v>16</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="33">
         <v>6</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="34">
         <v>1.1666666666666667E-2</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35">
+      <c r="K30" s="33"/>
+      <c r="L30" s="33">
         <v>5.875</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="35">
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="31" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33">
         <v>32000</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
         <v>2048</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="33">
         <v>8</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="33">
         <v>6</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J32" s="34"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
+      <c r="B33" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33" s="33">
         <v>32000</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33">
         <v>4096</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="33">
         <v>8</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="33">
         <v>3</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J33" s="34">
+        <v>1.7303240740740741E-2</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33">
+        <v>6.31</v>
+      </c>
+      <c r="M33" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
         <v>32000</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="E34" s="33"/>
+      <c r="F34" s="33">
         <v>4096</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="33">
         <v>4</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="33">
         <v>3</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="J34" s="34"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
+      <c r="B35" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" s="33">
         <v>151851</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
+      <c r="E35" s="33"/>
+      <c r="F35" s="33">
         <v>8192</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="33">
         <v>8</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="33">
         <v>1</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J35" s="34">
+        <v>6.1180555555555551E-2</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="M35" s="35">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
+      <c r="B36" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="D36" s="33">
         <v>32000</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="E36" s="33"/>
+      <c r="F36" s="33">
         <v>4096</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="33">
         <v>8</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="33">
         <v>2</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J36" s="34">
+        <v>2.461805555555556E-2</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="M36" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33">
         <v>151646</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
         <v>4096</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="33">
         <v>8</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="33">
         <v>1</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J37" s="34"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+      <c r="B39" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D39" s="33">
         <v>50277</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2">
+      <c r="E39" s="33"/>
+      <c r="F39" s="33">
         <v>2048</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="33">
         <v>4</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="33">
         <v>1</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J39" s="34">
+        <v>6.6793981481481482E-2</v>
+      </c>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33">
+        <v>5.875</v>
+      </c>
+      <c r="M39" s="35">
+        <v>3.4722222222222222E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
+      <c r="B40" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="D40" s="33">
         <v>32004</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33">
         <v>8192</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="33">
         <v>4</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="33">
         <v>1</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J40" s="34">
+        <v>5.0347222222222217E-2</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33">
+        <v>6.31</v>
+      </c>
+      <c r="M40" s="35">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33">
         <v>64000</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33">
         <v>4096</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="33">
         <v>4</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="33">
         <v>1</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="J41" s="34"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>65024</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35">
+      <c r="E43" s="33"/>
+      <c r="F43" s="33">
         <v>8192</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="33">
         <v>4</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="33">
         <v>4</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="39">
         <v>7.2754629629629627E-2</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35">
+      <c r="K43" s="33"/>
+      <c r="L43" s="33">
         <v>5.8179999999999996</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="35">
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>32000</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33">
         <v>8192</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="33">
         <v>4</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>6</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="39">
         <v>3.0439814814814819E-2</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33">
         <v>6.4960000000000004</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="35">
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
@@ -11247,10 +11738,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95621A32-E1E5-4D71-A40C-0AB39D85427D}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11259,7 +11750,7 @@
     <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:24" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>174</v>
       </c>
@@ -11276,8 +11767,24 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>176</v>
       </c>
@@ -11314,8 +11821,44 @@
       <c r="L2" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>164</v>
       </c>
@@ -11352,8 +11895,36 @@
       <c r="L3" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R3" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="28">
+        <v>7</v>
+      </c>
+      <c r="W3" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X3" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
@@ -11390,8 +11961,36 @@
       <c r="L4" s="28">
         <v>8.0139999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R4" s="28">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="W4" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X4" s="28">
+        <v>8.0139999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>134</v>
       </c>
@@ -11428,8 +12027,36 @@
       <c r="L5" s="28">
         <v>10.523</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="28">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R5" s="28">
+        <v>10.523</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="28">
+        <v>34</v>
+      </c>
+      <c r="W5" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X5" s="28">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>156</v>
       </c>
@@ -11466,8 +12093,36 @@
       <c r="L6" s="28">
         <v>9.1449999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R6" s="28">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="W6" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X6" s="28">
+        <v>9.1449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>116</v>
       </c>
@@ -11504,8 +12159,36 @@
       <c r="L7" s="28">
         <v>9.2430000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="28">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R7" s="28">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="28">
+        <v>40</v>
+      </c>
+      <c r="W7" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X7" s="28">
+        <v>9.2430000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>115</v>
       </c>
@@ -11542,8 +12225,36 @@
       <c r="L8" s="28">
         <v>10.523</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="28">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>4096</v>
+      </c>
+      <c r="R8" s="28">
+        <v>10.523</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="28">
+        <v>13</v>
+      </c>
+      <c r="W8" s="28">
+        <v>4096</v>
+      </c>
+      <c r="X8" s="28">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>43</v>
       </c>
@@ -11580,8 +12291,36 @@
       <c r="L9" s="28">
         <v>10.523</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>4096</v>
+      </c>
+      <c r="R9" s="28">
+        <v>10.523</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="28">
+        <v>7</v>
+      </c>
+      <c r="W9" s="28">
+        <v>4096</v>
+      </c>
+      <c r="X9" s="28">
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>180</v>
       </c>
@@ -11618,8 +12357,36 @@
       <c r="L10" s="28">
         <v>10.159000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="28">
+        <v>7.3</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R10" s="28">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" s="28"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="28">
+        <v>7.3</v>
+      </c>
+      <c r="W10" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X10" s="28">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>181</v>
       </c>
@@ -11656,8 +12423,36 @@
       <c r="L11" s="28">
         <v>10.159000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="28">
+        <v>46.7</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R11" s="28">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="28">
+        <v>46.7</v>
+      </c>
+      <c r="W11" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X11" s="28">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>123</v>
       </c>
@@ -11694,8 +12489,36 @@
       <c r="L12" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="28">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R12" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="28">
+        <v>30</v>
+      </c>
+      <c r="W12" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X12" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
@@ -11732,8 +12555,36 @@
       <c r="L13" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R13" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="W13" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X13" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>150</v>
       </c>
@@ -11770,8 +12621,36 @@
       <c r="L14" s="28">
         <v>8.4410000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R14" s="28">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="28">
+        <v>14</v>
+      </c>
+      <c r="W14" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X14" s="28">
+        <v>8.4410000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>146</v>
       </c>
@@ -11808,8 +12687,36 @@
       <c r="L15" s="28">
         <v>8.4410000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R15" s="28">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="28">
+        <v>7</v>
+      </c>
+      <c r="W15" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X15" s="28">
+        <v>8.4410000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>141</v>
       </c>
@@ -11846,8 +12753,36 @@
       <c r="L16" s="28">
         <v>8.4480000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>4096</v>
+      </c>
+      <c r="R16" s="28">
+        <v>8.4480000000000004</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="W16" s="28">
+        <v>4096</v>
+      </c>
+      <c r="X16" s="28">
+        <v>8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
@@ -11884,8 +12819,36 @@
       <c r="L17" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>4096</v>
+      </c>
+      <c r="R17" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="28">
+        <v>3</v>
+      </c>
+      <c r="W17" s="28">
+        <v>4096</v>
+      </c>
+      <c r="X17" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>34</v>
       </c>
@@ -11922,8 +12885,36 @@
       <c r="L18" s="28">
         <v>9.2430000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R18" s="28">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="28">
+        <v>7</v>
+      </c>
+      <c r="W18" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X18" s="28">
+        <v>9.2430000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>46</v>
       </c>
@@ -11960,8 +12951,36 @@
       <c r="L19" s="28">
         <v>10.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>8192</v>
+      </c>
+      <c r="R19" s="28">
+        <v>10.52</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="28">
+        <v>7</v>
+      </c>
+      <c r="W19" s="28">
+        <v>8192</v>
+      </c>
+      <c r="X19" s="28">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
@@ -11998,8 +13017,36 @@
       <c r="L20" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28">
+        <v>6.9</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R20" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="28">
+        <v>6.9</v>
+      </c>
+      <c r="W20" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X20" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>14</v>
       </c>
@@ -12036,8 +13083,36 @@
       <c r="L21" s="28">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28">
+        <v>2.8</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>2048</v>
+      </c>
+      <c r="R21" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="28">
+        <v>2.8</v>
+      </c>
+      <c r="W21" s="28">
+        <v>2048</v>
+      </c>
+      <c r="X21" s="28">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>182</v>
       </c>
@@ -12074,8 +13149,36 @@
       <c r="L22" s="28">
         <v>10.159000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>4096</v>
+      </c>
+      <c r="R22" s="28">
+        <v>10.159000000000001</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="T22" s="28"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="W22" s="28">
+        <v>4096</v>
+      </c>
+      <c r="X22" s="28">
+        <v>10.159000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>""""&amp;A3&amp;""" : { ""pplu-1"":"&amp;B3&amp;"; ""time"":"&amp;INT(C3*24*6000)/100&amp;"; ""size"":"&amp;D3&amp;"; ""sequence"":"&amp;E3&amp;"; ""tokens"":"&amp;F3&amp;" };"</f>
         <v>"allenai/OLMo-7B" : { "pplu-1":186; "time":42,85; "size":7; "sequence":2048; "tokens":14,248 };</v>
@@ -12085,7 +13188,7 @@
         <v>"allenai/OLMo-7B" : { "pplu-1":175; "time":25,63; "size":7; "sequence":2048; "tokens":8,53 };</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A50" si="0">""""&amp;A4&amp;""" : { ""pplu-1"":"&amp;B4&amp;"; ""time"":"&amp;INT(C4*24*6000)/100&amp;"; ""size"":"&amp;D4&amp;"; ""sequence"":"&amp;E4&amp;"; ""tokens"":"&amp;F4&amp;" };"</f>
         <v>"bigscience/bloomz-7b1-mt" : { "pplu-1":217; "time":58,86; "size":7,1; "sequence":2048; "tokens":10,041 };</v>
@@ -12282,10 +13385,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62988108-11ED-450B-A1D5-404A4F70C2FF}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G24" sqref="G24:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12626,6 +13729,87 @@
         <v>python test-models.py qwen1.5_4b perplexity es</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"python test-models.py "&amp;E24&amp;" perplexity es"</f>
+        <v>python test-models.py qwen1.5_0.5b perplexity es</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G32" si="2">"python test-models.py "&amp;E25&amp;" perplexity es"</f>
+        <v>python test-models.py qwen1.5_1b perplexity es</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py olmo_1b perplexity es</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>349</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py qwen1.5_4b perplexity es</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py minicpm_3b perplexity es</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py qwen1.5_7b perplexity es</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py yi_6b perplexity es</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py qwen1.5_7b perplexity es</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>python test-models.py phi2_3b perplexity es</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
